--- a/ExcelFile/CalcGoldTest.xlsx
+++ b/ExcelFile/CalcGoldTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QC fresher\Automation\Exercise2\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EFA47E-9063-4A93-88BE-EDCF154C309E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464C85D-077A-49FC-B6BB-DE727A515BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,16 @@
     <sheet name="TC5" sheetId="6" r:id="rId6"/>
     <sheet name="TC6" sheetId="7" r:id="rId7"/>
     <sheet name="TC7" sheetId="8" r:id="rId8"/>
+    <sheet name="TC8" sheetId="10" r:id="rId9"/>
+    <sheet name="TC9" sheetId="9" r:id="rId10"/>
+    <sheet name="TC10" sheetId="11" r:id="rId11"/>
+    <sheet name="TC11" sheetId="12" r:id="rId12"/>
+    <sheet name="TC12" sheetId="13" r:id="rId13"/>
+    <sheet name="TC13" sheetId="14" r:id="rId14"/>
+    <sheet name="TC14" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="110">
   <si>
     <t>Test case</t>
   </si>
@@ -145,9 +153,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>name:btn_Channel,id:4</t>
-  </si>
-  <si>
     <t>name:btn_BetX3</t>
   </si>
   <si>
@@ -166,53 +171,222 @@
     <t>name:btn_Channel,id:1</t>
   </si>
   <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>10000</t>
+    <t>name:btn_Menu</t>
+  </si>
+  <si>
+    <t>Dealer hòa khi tiền thắng = tiền thua, player lấy lại tiền cược khi hòa</t>
+  </si>
+  <si>
+    <t>Dealer nhận toàn bộ tiền thắng &lt;=&gt; player mất toàn bộ tiền thua</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Dealer nhận tiền theo tỷ lệ tiền dealer/tiền thắng, player mất tiền theo tỷ lệ tiền player/tiền thua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dealer mất toàn bộ tiền thua, dealer đủ trả ngay từ đầu </t>
+  </si>
+  <si>
+    <t>Dealer mất số tiền bằng tổng số tiền thua, dealer đủ tiền trả sau khi thu tiền thắng</t>
+  </si>
+  <si>
+    <t>Dealer mất toàn bộ số tiền đang có, dealer không đủ tiền trả ngay từ đầu</t>
+  </si>
+  <si>
+    <t>Dealer mất toàn bộ số tiền đang có, dealer không đủ tiền trả sau khi thu tiền thắng</t>
+  </si>
+  <si>
+    <t>checkUser</t>
+  </si>
+  <si>
+    <t>gold:2000000</t>
+  </si>
+  <si>
+    <t>gold:1000000</t>
+  </si>
+  <si>
+    <t>gold:2270000</t>
+  </si>
+  <si>
+    <t>gold:850000</t>
+  </si>
+  <si>
+    <t>gold:550000</t>
+  </si>
+  <si>
+    <t>name:btn_Channel|id:1</t>
+  </si>
+  <si>
+    <t>1|1610</t>
+  </si>
+  <si>
+    <t>2|1611</t>
+  </si>
+  <si>
+    <t>3|1612</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>name:btn_Channel|id:2</t>
+  </si>
+  <si>
+    <t>name:btn_Hit</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>TC8</t>
   </si>
   <si>
     <t>6000</t>
   </si>
   <si>
-    <t>name:btn_Menu</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Dealer hòa khi tiền thắng = tiền thua, player lấy lại tiền cược khi hòa</t>
-  </si>
-  <si>
-    <t>Dealer nhận toàn bộ tiền thắng &lt;=&gt; player mất toàn bộ tiền thua</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Dealer nhận tiền theo tỷ lệ tiền dealer/tiền thắng, player mất tiền theo tỷ lệ tiền player/tiền thua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dealer mất toàn bộ tiền thua, dealer đủ trả ngay từ đầu </t>
-  </si>
-  <si>
-    <t>Dealer mất số tiền bằng tổng số tiền thua, dealer đủ tiền trả sau khi thu tiền thắng</t>
-  </si>
-  <si>
-    <t>Dealer mất toàn bộ số tiền đang có, dealer không đủ tiền trả ngay từ đầu</t>
-  </si>
-  <si>
-    <t>Dealer mất toàn bộ số tiền đang có, dealer không đủ tiền trả sau khi thu tiền thắng</t>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>gold:2135000</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>gold:3800000</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>STT
+(1 là dealer)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Nhà cái</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Gold player</t>
+  </si>
+  <si>
+    <t>Gold dealer</t>
+  </si>
+  <si>
+    <t>Cược (player only)</t>
+  </si>
+  <si>
+    <t>Bài</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>Thắng(1), thua(0), hòa(-1)</t>
+  </si>
+  <si>
+    <t>Tiền player thắng</t>
+  </si>
+  <si>
+    <t>Tiền player thua</t>
+  </si>
+  <si>
+    <t>Tiền chưa tính phế</t>
+  </si>
+  <si>
+    <t>Tiền thắng/thua</t>
+  </si>
+  <si>
+    <t>Tiền phế</t>
+  </si>
+  <si>
+    <t>Tiền output</t>
+  </si>
+  <si>
+    <t>Lá 1</t>
+  </si>
+  <si>
+    <t>Lá 2</t>
+  </si>
+  <si>
+    <t>Lá 3</t>
+  </si>
+  <si>
+    <t>Điểm nhà cái</t>
+  </si>
+  <si>
+    <t>Tổng tiền dealer thắng</t>
+  </si>
+  <si>
+    <t>Tổng tiền dealer nhận</t>
+  </si>
+  <si>
+    <t>Tiền dealer sau khi nhận</t>
+  </si>
+  <si>
+    <t>Tổng tiền dealer thua</t>
+  </si>
+  <si>
+    <t>Tổng tiền dealer mất</t>
+  </si>
+  <si>
+    <t>Tiền dealer sau khi mất</t>
+  </si>
+  <si>
+    <t>Tiền cuối cùng của dealer</t>
+  </si>
+  <si>
+    <t>Tiền cuối cùng của player</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>gold:1850000</t>
+  </si>
+  <si>
+    <t>gold:1135000</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +401,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +467,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -277,11 +503,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -309,6 +561,50 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1010200-FB7E-4A2D-A5D1-6A49A284C870}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +1004,2498 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D2B06-93B1-4DA5-99D9-D7FD97E68E4A}">
+  <dimension ref="A1:AN27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:AF14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <v>2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="29">
+        <f>IF(H13=1,I13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <f>I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29">
+        <v>10</v>
+      </c>
+      <c r="N13" s="29">
+        <v>8</v>
+      </c>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30">
+        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="30">
+        <f>P13</f>
+        <v>8</v>
+      </c>
+      <c r="R13" s="31">
+        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30">
+        <f>SUM(T14:T18)</f>
+        <v>150000</v>
+      </c>
+      <c r="V13" s="30">
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <v>150000</v>
+      </c>
+      <c r="W13" s="30">
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <v>2150000</v>
+      </c>
+      <c r="X13" s="30">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="30">
+        <f>IF(X13&lt;=W13,X13,W13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>W13-Y13</f>
+        <v>2150000</v>
+      </c>
+      <c r="AA13" s="30">
+        <f>Z13</f>
+        <v>2150000</v>
+      </c>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30">
+        <f>ROUND(AA13,0)</f>
+        <v>2150000</v>
+      </c>
+      <c r="AD13" s="30">
+        <f>AC13-I13</f>
+        <v>150000</v>
+      </c>
+      <c r="AE13" s="30">
+        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
+        <v>15000</v>
+      </c>
+      <c r="AF13" s="30">
+        <f>ROUND(AC13-AE13,0)</f>
+        <v>2135000</v>
+      </c>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="K14" s="29">
+        <f>K13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L14" s="29">
+        <v>150000</v>
+      </c>
+      <c r="M14" s="29">
+        <v>2</v>
+      </c>
+      <c r="N14" s="32">
+        <v>4</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30">
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="30">
+        <f>Q13</f>
+        <v>8</v>
+      </c>
+      <c r="R14" s="31">
+        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="30">
+        <f>IF(R14=1,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
+        <f>IF(R14=0,L14,0)</f>
+        <v>150000</v>
+      </c>
+      <c r="U14" s="30">
+        <f>U13</f>
+        <v>150000</v>
+      </c>
+      <c r="V14" s="30">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="W14" s="30">
+        <f t="shared" si="1"/>
+        <v>2150000</v>
+      </c>
+      <c r="X14" s="30">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="30">
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="30">
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <v>2150000</v>
+      </c>
+      <c r="AA14" s="30">
+        <f t="shared" ref="AA14" si="6">Z14</f>
+        <v>2150000</v>
+      </c>
+      <c r="AB14" s="30">
+        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
+        <v>850000</v>
+      </c>
+      <c r="AC14" s="30">
+        <f>ROUND(AB14,0)</f>
+        <v>850000</v>
+      </c>
+      <c r="AD14" s="30">
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <v>-150000</v>
+      </c>
+      <c r="AE14" s="30">
+        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="30">
+        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
+        <v>850000</v>
+      </c>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669CDE09-451F-4472-BA78-72FA57272C7F}">
+  <dimension ref="A1:AN27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <v>2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="29">
+        <f>IF(H13=1,I13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <f>I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29">
+        <v>10</v>
+      </c>
+      <c r="N13" s="29">
+        <v>8</v>
+      </c>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30">
+        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="30">
+        <f>P13</f>
+        <v>8</v>
+      </c>
+      <c r="R13" s="31">
+        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30">
+        <f>SUM(T14:T18)</f>
+        <v>3000000</v>
+      </c>
+      <c r="V13" s="30">
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <v>2000000</v>
+      </c>
+      <c r="W13" s="30">
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <v>4000000</v>
+      </c>
+      <c r="X13" s="30">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="30">
+        <f>IF(X13&lt;=W13,X13,W13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>W13-Y13</f>
+        <v>4000000</v>
+      </c>
+      <c r="AA13" s="30">
+        <f>Z13</f>
+        <v>4000000</v>
+      </c>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30">
+        <f>ROUND(AA13,0)</f>
+        <v>4000000</v>
+      </c>
+      <c r="AD13" s="30">
+        <f>AC13-I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="AE13" s="30">
+        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
+        <v>200000</v>
+      </c>
+      <c r="AF13" s="30">
+        <f>ROUND(AC13-AE13,0)</f>
+        <v>3800000</v>
+      </c>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>3000000</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <v>3000000</v>
+      </c>
+      <c r="K14" s="29">
+        <f>K13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L14" s="29">
+        <v>3000000</v>
+      </c>
+      <c r="M14" s="29">
+        <v>2</v>
+      </c>
+      <c r="N14" s="32">
+        <v>4</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30">
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="30">
+        <f>Q13</f>
+        <v>8</v>
+      </c>
+      <c r="R14" s="31">
+        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="30">
+        <f>IF(R14=1,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
+        <f>IF(R14=0,L14,0)</f>
+        <v>3000000</v>
+      </c>
+      <c r="U14" s="30">
+        <f>U13</f>
+        <v>3000000</v>
+      </c>
+      <c r="V14" s="30">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="W14" s="30">
+        <f t="shared" si="1"/>
+        <v>4000000</v>
+      </c>
+      <c r="X14" s="30">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="30">
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="30">
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <v>4000000</v>
+      </c>
+      <c r="AA14" s="30">
+        <f t="shared" ref="AA14" si="6">Z14</f>
+        <v>4000000</v>
+      </c>
+      <c r="AB14" s="30">
+        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
+        <v>1000000</v>
+      </c>
+      <c r="AC14" s="30">
+        <f>ROUND(AB14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="AD14" s="30">
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <v>-2000000</v>
+      </c>
+      <c r="AE14" s="30">
+        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="30">
+        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
+  <dimension ref="A1:AN27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <v>2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="29">
+        <f>IF(H13=1,I13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <f>I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29">
+        <v>10</v>
+      </c>
+      <c r="N13" s="29">
+        <v>8</v>
+      </c>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30">
+        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="30">
+        <f>P13</f>
+        <v>8</v>
+      </c>
+      <c r="R13" s="31">
+        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30">
+        <f>SUM(T14:T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="30">
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="30">
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <v>2000000</v>
+      </c>
+      <c r="X13" s="30">
+        <f>SUM(S14:S18)</f>
+        <v>150000</v>
+      </c>
+      <c r="Y13" s="30">
+        <f>IF(X13&lt;=W13,X13,W13)</f>
+        <v>150000</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>W13-Y13</f>
+        <v>1850000</v>
+      </c>
+      <c r="AA13" s="30">
+        <f>Z13</f>
+        <v>1850000</v>
+      </c>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30">
+        <f>ROUND(AA13,0)</f>
+        <v>1850000</v>
+      </c>
+      <c r="AD13" s="30">
+        <f>AC13-I13</f>
+        <v>-150000</v>
+      </c>
+      <c r="AE13" s="30">
+        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="30">
+        <f>ROUND(AC13-AE13,0)</f>
+        <v>1850000</v>
+      </c>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="K14" s="29">
+        <f>K13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L14" s="29">
+        <v>150000</v>
+      </c>
+      <c r="M14" s="29">
+        <v>9</v>
+      </c>
+      <c r="N14" s="32">
+        <v>10</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30">
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <v>9</v>
+      </c>
+      <c r="Q14" s="30">
+        <f>Q13</f>
+        <v>8</v>
+      </c>
+      <c r="R14" s="31">
+        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="30">
+        <f>IF(R14=1,L14,0)</f>
+        <v>150000</v>
+      </c>
+      <c r="T14" s="30">
+        <f>IF(R14=0,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="30">
+        <f>U13</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="30">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="X14" s="30">
+        <f>SUM(S14:S18)</f>
+        <v>150000</v>
+      </c>
+      <c r="Y14" s="30">
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <v>150000</v>
+      </c>
+      <c r="Z14" s="30">
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <v>1850000</v>
+      </c>
+      <c r="AA14" s="30">
+        <f t="shared" ref="AA14" si="6">Z14</f>
+        <v>1850000</v>
+      </c>
+      <c r="AB14" s="30">
+        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
+        <v>1150000</v>
+      </c>
+      <c r="AC14" s="30">
+        <f>ROUND(AB14,0)</f>
+        <v>1150000</v>
+      </c>
+      <c r="AD14" s="30">
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <v>150000</v>
+      </c>
+      <c r="AE14" s="30">
+        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
+        <v>15000</v>
+      </c>
+      <c r="AF14" s="30">
+        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
+        <v>1135000</v>
+      </c>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC7A2B3-3DDB-406B-8779-98022B27B7CE}">
+  <dimension ref="A1:AN26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7121D5EC-B4C4-417D-AE39-1AF0EBC3B4AE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8834AD32-30AA-4CB2-B695-B7056ED3E834}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -741,7 +3528,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -749,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -779,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -976,7 +3763,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,7 +3777,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,7 +3791,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,7 +3805,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,7 +3819,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,10 +3830,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,7 +3847,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,7 +3861,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,7 +3875,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1098,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75E48C-2F2B-43CD-B98E-D707A881D9A3}">
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +3911,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1140,7 +3927,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1162,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1244,13 +4031,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1263,13 +4050,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1282,13 +4069,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1301,12 +4088,12 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="10"/>
@@ -1320,30 +4107,40 @@
         <v>5</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>7</v>
       </c>
@@ -1351,15 +4148,15 @@
         <v>28</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>33</v>
@@ -1367,78 +4164,218 @@
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>10</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>11</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>12</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>20</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>21</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>14</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>22</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>45</v>
+      <c r="C33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>23</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +4411,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1482,7 +4419,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -1512,7 +4449,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1709,7 +4646,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,7 +4660,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,7 +4674,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,7 +4688,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,7 +4702,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,10 +4713,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,7 +4730,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,7 +4744,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,7 +4758,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +4794,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1865,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -1895,7 +4832,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1983,7 +4920,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2002,7 +4939,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2021,7 +4958,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2092,7 +5029,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2106,7 +5043,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,7 +5057,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,7 +5071,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,7 +5085,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,10 +5096,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,7 +5113,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,7 +5127,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,7 +5141,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2240,7 +5177,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -2248,7 +5185,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -2278,7 +5215,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2475,7 +5412,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,7 +5426,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,7 +5440,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,7 +5454,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,7 +5468,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2542,10 +5479,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,7 +5496,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,7 +5510,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,7 +5524,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +5560,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -2631,7 +5568,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -2661,7 +5598,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2858,7 +5795,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,7 +5809,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,7 +5823,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,7 +5837,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,7 +5851,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,10 +5862,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,7 +5879,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,7 +5893,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,7 +5907,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2982,7 +5919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0648B-A23C-4939-8C83-4D0DC4A360D1}">
   <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3006,7 +5943,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -3014,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -3044,7 +5981,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3241,7 +6178,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,7 +6192,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,7 +6206,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,7 +6220,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,7 +6234,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,10 +6245,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,7 +6262,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,7 +6276,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,10 +6290,690 @@
         <v>31</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B3A5C-5E46-47CA-A2E8-3DFE7C09C665}">
+  <dimension ref="A1:AN27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF11" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="W12" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <v>2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="29">
+        <f>IF(H13=1,I13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="29">
+        <f>I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29">
+        <v>7</v>
+      </c>
+      <c r="N13" s="29">
+        <v>1</v>
+      </c>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30">
+        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="30">
+        <f>P13</f>
+        <v>8</v>
+      </c>
+      <c r="R13" s="31">
+        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30">
+        <f>SUM(T14:T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="30">
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="30">
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <v>2000000</v>
+      </c>
+      <c r="X13" s="30">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="30">
+        <f>IF(X13&lt;=W13,X13,W13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>W13-Y13</f>
+        <v>2000000</v>
+      </c>
+      <c r="AA13" s="30">
+        <f>Z13</f>
+        <v>2000000</v>
+      </c>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30">
+        <f>ROUND(AA13,0)</f>
+        <v>2000000</v>
+      </c>
+      <c r="AD13" s="30">
+        <f>AC13-I13</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="30">
+        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="30">
+        <f>ROUND(AC13-AE13,0)</f>
+        <v>2000000</v>
+      </c>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="K14" s="29">
+        <f>K13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L14" s="29">
+        <v>150000</v>
+      </c>
+      <c r="M14" s="29">
+        <v>3</v>
+      </c>
+      <c r="N14" s="32">
+        <v>1</v>
+      </c>
+      <c r="O14" s="29">
+        <v>4</v>
+      </c>
+      <c r="P14" s="30">
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <v>8</v>
+      </c>
+      <c r="Q14" s="30">
+        <f>Q13</f>
+        <v>8</v>
+      </c>
+      <c r="R14" s="31">
+        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="S14" s="30">
+        <f>IF(R14=1,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="30">
+        <f>IF(R14=0,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="30">
+        <f>U13</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="30">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="X14" s="30">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="30">
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="30">
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <v>2000000</v>
+      </c>
+      <c r="AA14" s="30">
+        <f t="shared" ref="AA14" si="6">Z14</f>
+        <v>2000000</v>
+      </c>
+      <c r="AB14" s="30">
+        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
+        <v>1000000</v>
+      </c>
+      <c r="AC14" s="30">
+        <f>ROUND(AB14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="AD14" s="30">
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="30">
+        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="30">
+        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelFile/CalcGoldTest.xlsx
+++ b/ExcelFile/CalcGoldTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464C85D-077A-49FC-B6BB-DE727A515BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B121E-5733-4155-8831-E53179E54853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}"/>
+    <workbookView xWindow="2715" yWindow="705" windowWidth="21600" windowHeight="11385" activeTab="11" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="TC14" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="121">
   <si>
     <t>Test case</t>
   </si>
@@ -252,13 +251,7 @@
     <t>16000</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>61</t>
-  </si>
-  <si>
-    <t>gold:2135000</t>
   </si>
   <si>
     <t>62</t>
@@ -367,9 +360,6 @@
     <t>gold:1850000</t>
   </si>
   <si>
-    <t>gold:1135000</t>
-  </si>
-  <si>
     <t>TC9</t>
   </si>
   <si>
@@ -380,6 +370,48 @@
   </si>
   <si>
     <t>TC12</t>
+  </si>
+  <si>
+    <t>1|1615</t>
+  </si>
+  <si>
+    <t>2|1616</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1|1617</t>
+  </si>
+  <si>
+    <t>2|1618</t>
+  </si>
+  <si>
+    <t>gold:0</t>
+  </si>
+  <si>
+    <t>gold:4800000</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>logOut</t>
+  </si>
+  <si>
+    <t>name:btn_BetAll</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>gold:2133500</t>
+  </si>
+  <si>
+    <t>gold:1133500</t>
+  </si>
+  <si>
+    <t>25000</t>
   </si>
 </sst>
 </file>
@@ -533,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -564,37 +596,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -604,6 +609,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1010200-FB7E-4A2D-A5D1-6A49A284C870}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,15 +1052,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -1030,17 +1068,25 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1051,1370 +1097,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D2B06-93B1-4DA5-99D9-D7FD97E68E4A}">
-  <dimension ref="A1:AN27"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:AF14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
-    <col min="36" max="36" width="9.140625" style="8"/>
-    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
-    <col min="38" max="40" width="9.140625" style="8"/>
-    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD11" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF11" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="V12" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y12" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA12" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="8"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="28">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <v>2</v>
-      </c>
-      <c r="I13" s="29">
-        <v>2000000</v>
-      </c>
-      <c r="J13" s="29">
-        <f>IF(H13=1,I13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="29">
-        <f>I13</f>
-        <v>2000000</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29">
-        <v>10</v>
-      </c>
-      <c r="N13" s="29">
-        <v>8</v>
-      </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30">
-        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
-        <v>8</v>
-      </c>
-      <c r="Q13" s="30">
-        <f>P13</f>
-        <v>8</v>
-      </c>
-      <c r="R13" s="31">
-        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30">
-        <f>SUM(T14:T18)</f>
-        <v>150000</v>
-      </c>
-      <c r="V13" s="30">
-        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
-        <v>150000</v>
-      </c>
-      <c r="W13" s="30">
-        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
-        <v>2150000</v>
-      </c>
-      <c r="X13" s="30">
-        <f>SUM(S14:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="30">
-        <f>IF(X13&lt;=W13,X13,W13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="30">
-        <f>W13-Y13</f>
-        <v>2150000</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>Z13</f>
-        <v>2150000</v>
-      </c>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30">
-        <f>ROUND(AA13,0)</f>
-        <v>2150000</v>
-      </c>
-      <c r="AD13" s="30">
-        <f>AC13-I13</f>
-        <v>150000</v>
-      </c>
-      <c r="AE13" s="30">
-        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
-        <v>15000</v>
-      </c>
-      <c r="AF13" s="30">
-        <f>ROUND(AC13-AE13,0)</f>
-        <v>2135000</v>
-      </c>
-      <c r="AG13" s="8"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="28">
-        <v>2</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="J14" s="29">
-        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
-        <v>1000000</v>
-      </c>
-      <c r="K14" s="29">
-        <f>K13</f>
-        <v>2000000</v>
-      </c>
-      <c r="L14" s="29">
-        <v>150000</v>
-      </c>
-      <c r="M14" s="29">
-        <v>2</v>
-      </c>
-      <c r="N14" s="32">
-        <v>4</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30">
-        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
-        <v>6</v>
-      </c>
-      <c r="Q14" s="30">
-        <f>Q13</f>
-        <v>8</v>
-      </c>
-      <c r="R14" s="31">
-        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="30">
-        <f>IF(R14=1,L14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="30">
-        <f>IF(R14=0,L14,0)</f>
-        <v>150000</v>
-      </c>
-      <c r="U14" s="30">
-        <f>U13</f>
-        <v>150000</v>
-      </c>
-      <c r="V14" s="30">
-        <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
-      <c r="W14" s="30">
-        <f t="shared" si="1"/>
-        <v>2150000</v>
-      </c>
-      <c r="X14" s="30">
-        <f>SUM(S14:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="30">
-        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="30">
-        <f t="shared" ref="Z14" si="5">W14-Y14</f>
-        <v>2150000</v>
-      </c>
-      <c r="AA14" s="30">
-        <f t="shared" ref="AA14" si="6">Z14</f>
-        <v>2150000</v>
-      </c>
-      <c r="AB14" s="30">
-        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
-        <v>850000</v>
-      </c>
-      <c r="AC14" s="30">
-        <f>ROUND(AB14,0)</f>
-        <v>850000</v>
-      </c>
-      <c r="AD14" s="30">
-        <f t="shared" ref="AD14" si="7">AC14-I14</f>
-        <v>-150000</v>
-      </c>
-      <c r="AE14" s="30">
-        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="30">
-        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
-        <v>850000</v>
-      </c>
-      <c r="AG14" s="8"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>8</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>9</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>10</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>12</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>13</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>14</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>15</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>16</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="P10:AF10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669CDE09-451F-4472-BA78-72FA57272C7F}">
-  <dimension ref="A1:AN27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
-    <col min="36" max="36" width="9.140625" style="8"/>
-    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
-    <col min="38" max="40" width="9.140625" style="8"/>
-    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="T11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD11" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF11" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="V12" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="W12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="X12" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y12" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA12" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="8"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="28">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <v>2</v>
-      </c>
-      <c r="I13" s="29">
-        <v>2000000</v>
-      </c>
-      <c r="J13" s="29">
-        <f>IF(H13=1,I13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="29">
-        <f>I13</f>
-        <v>2000000</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29">
-        <v>10</v>
-      </c>
-      <c r="N13" s="29">
-        <v>8</v>
-      </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30">
-        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
-        <v>8</v>
-      </c>
-      <c r="Q13" s="30">
-        <f>P13</f>
-        <v>8</v>
-      </c>
-      <c r="R13" s="31">
-        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30">
-        <f>SUM(T14:T18)</f>
-        <v>3000000</v>
-      </c>
-      <c r="V13" s="30">
-        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
-        <v>2000000</v>
-      </c>
-      <c r="W13" s="30">
-        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
-        <v>4000000</v>
-      </c>
-      <c r="X13" s="30">
-        <f>SUM(S14:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="30">
-        <f>IF(X13&lt;=W13,X13,W13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="30">
-        <f>W13-Y13</f>
-        <v>4000000</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>Z13</f>
-        <v>4000000</v>
-      </c>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30">
-        <f>ROUND(AA13,0)</f>
-        <v>4000000</v>
-      </c>
-      <c r="AD13" s="30">
-        <f>AC13-I13</f>
-        <v>2000000</v>
-      </c>
-      <c r="AE13" s="30">
-        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
-        <v>200000</v>
-      </c>
-      <c r="AF13" s="30">
-        <f>ROUND(AC13-AE13,0)</f>
-        <v>3800000</v>
-      </c>
-      <c r="AG13" s="8"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="28">
-        <v>2</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29">
-        <v>1</v>
-      </c>
-      <c r="I14" s="29">
-        <v>3000000</v>
-      </c>
-      <c r="J14" s="29">
-        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
-        <v>3000000</v>
-      </c>
-      <c r="K14" s="29">
-        <f>K13</f>
-        <v>2000000</v>
-      </c>
-      <c r="L14" s="29">
-        <v>3000000</v>
-      </c>
-      <c r="M14" s="29">
-        <v>2</v>
-      </c>
-      <c r="N14" s="32">
-        <v>4</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30">
-        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
-        <v>6</v>
-      </c>
-      <c r="Q14" s="30">
-        <f>Q13</f>
-        <v>8</v>
-      </c>
-      <c r="R14" s="31">
-        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="30">
-        <f>IF(R14=1,L14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="30">
-        <f>IF(R14=0,L14,0)</f>
-        <v>3000000</v>
-      </c>
-      <c r="U14" s="30">
-        <f>U13</f>
-        <v>3000000</v>
-      </c>
-      <c r="V14" s="30">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
-      <c r="W14" s="30">
-        <f t="shared" si="1"/>
-        <v>4000000</v>
-      </c>
-      <c r="X14" s="30">
-        <f>SUM(S14:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="30">
-        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="30">
-        <f t="shared" ref="Z14" si="5">W14-Y14</f>
-        <v>4000000</v>
-      </c>
-      <c r="AA14" s="30">
-        <f t="shared" ref="AA14" si="6">Z14</f>
-        <v>4000000</v>
-      </c>
-      <c r="AB14" s="30">
-        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
-        <v>1000000</v>
-      </c>
-      <c r="AC14" s="30">
-        <f>ROUND(AB14,0)</f>
-        <v>1000000</v>
-      </c>
-      <c r="AD14" s="30">
-        <f t="shared" ref="AD14" si="7">AC14-I14</f>
-        <v>-2000000</v>
-      </c>
-      <c r="AE14" s="30">
-        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="30">
-        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
-        <v>1000000</v>
-      </c>
-      <c r="AG14" s="8"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>8</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>9</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>10</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>12</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>13</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>14</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>15</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>16</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="P10:AF10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
-  <dimension ref="A1:AN27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -2438,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -2461,8 +1149,8 @@
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>117</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -2476,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2495,104 +1183,104 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="H11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="I11" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="J11" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="K11" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="L11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="M11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="19" t="s">
+      <c r="S11" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18" t="s">
+      <c r="T11" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="AD11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="18" t="s">
+      <c r="AE11" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AD11" s="23" t="s">
+      <c r="AF11" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF11" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -2608,58 +1296,58 @@
       <c r="D12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="24" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="R12" s="26"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22" t="s">
+      <c r="V12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="24" t="s">
+      <c r="W12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V12" s="27" t="s">
+      <c r="X12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="W12" s="24" t="s">
+      <c r="Y12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="X12" s="24" t="s">
+      <c r="Z12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="AA12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="Z12" s="24" t="s">
+      <c r="AB12" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="AA12" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="18"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="26"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2675,91 +1363,91 @@
       <c r="D13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20">
         <v>2</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="20">
         <v>2000000</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="20">
         <f>IF(H13=1,I13,0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="20">
         <f>I13</f>
         <v>2000000</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29">
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
         <v>10</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="20">
         <v>8</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30">
+      <c r="O13" s="20"/>
+      <c r="P13" s="21">
         <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
         <v>8</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="21">
         <f>P13</f>
         <v>8</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="22">
         <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21">
+        <f>SUM(T14:T18)</f>
+        <v>150000</v>
+      </c>
+      <c r="V13" s="21">
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <v>150000</v>
+      </c>
+      <c r="W13" s="21">
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <v>2150000</v>
+      </c>
+      <c r="X13" s="21">
+        <f>SUM(S14:S18)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30">
-        <f>SUM(T14:T18)</f>
+      <c r="Y13" s="21">
+        <f>IF(X13&lt;=W13,X13,W13)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="30">
-        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="30">
-        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
-        <v>2000000</v>
-      </c>
-      <c r="X13" s="30">
-        <f>SUM(S14:S18)</f>
+      <c r="Z13" s="21">
+        <f>W13-Y13</f>
+        <v>2150000</v>
+      </c>
+      <c r="AA13" s="21">
+        <f>Z13</f>
+        <v>2150000</v>
+      </c>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21">
+        <f>ROUND(AA13,0)</f>
+        <v>2150000</v>
+      </c>
+      <c r="AD13" s="21">
+        <f>AC13-I13</f>
         <v>150000</v>
       </c>
-      <c r="Y13" s="30">
-        <f>IF(X13&lt;=W13,X13,W13)</f>
-        <v>150000</v>
-      </c>
-      <c r="Z13" s="30">
-        <f>W13-Y13</f>
-        <v>1850000</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>Z13</f>
-        <v>1850000</v>
-      </c>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30">
-        <f>ROUND(AA13,0)</f>
-        <v>1850000</v>
-      </c>
-      <c r="AD13" s="30">
-        <f>AC13-I13</f>
-        <v>-150000</v>
-      </c>
-      <c r="AE13" s="30">
-        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="30">
+      <c r="AE13" s="21">
+        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <v>16500</v>
+      </c>
+      <c r="AF13" s="21">
         <f>ROUND(AC13-AE13,0)</f>
-        <v>1850000</v>
+        <v>2133500</v>
       </c>
       <c r="AG13" s="8"/>
     </row>
@@ -2776,102 +1464,104 @@
       <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="19">
         <v>2</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20">
         <v>1</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="20">
         <v>1000000</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="20">
         <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="20">
         <f>K13</f>
         <v>2000000</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="20">
         <v>150000</v>
       </c>
-      <c r="M14" s="29">
-        <v>9</v>
-      </c>
-      <c r="N14" s="32">
-        <v>10</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30">
+      <c r="M14" s="20">
+        <v>2</v>
+      </c>
+      <c r="N14" s="23">
+        <v>4</v>
+      </c>
+      <c r="O14" s="20">
+        <v>1</v>
+      </c>
+      <c r="P14" s="21">
         <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
-        <v>9</v>
-      </c>
-      <c r="Q14" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="21">
         <f>Q13</f>
         <v>8</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="22">
         <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="30">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
         <f>IF(R14=1,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
+        <f>IF(R14=0,L14,0)</f>
         <v>150000</v>
       </c>
-      <c r="T14" s="30">
-        <f>IF(R14=0,L14,0)</f>
+      <c r="U14" s="21">
+        <f>U13</f>
+        <v>150000</v>
+      </c>
+      <c r="V14" s="21">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="W14" s="21">
+        <f t="shared" si="1"/>
+        <v>2150000</v>
+      </c>
+      <c r="X14" s="21">
+        <f>SUM(S14:S18)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="30">
-        <f>U13</f>
+      <c r="Y14" s="21">
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="30">
-        <f t="shared" si="0"/>
+      <c r="Z14" s="21">
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <v>2150000</v>
+      </c>
+      <c r="AA14" s="21">
+        <f t="shared" ref="AA14" si="6">Z14</f>
+        <v>2150000</v>
+      </c>
+      <c r="AB14" s="21">
+        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
+        <v>850000</v>
+      </c>
+      <c r="AC14" s="21">
+        <f>ROUND(AB14,0)</f>
+        <v>850000</v>
+      </c>
+      <c r="AD14" s="21">
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <v>-150000</v>
+      </c>
+      <c r="AE14" s="21">
+        <f>ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.11,0),0)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="30">
-        <f t="shared" si="1"/>
-        <v>2000000</v>
-      </c>
-      <c r="X14" s="30">
-        <f>SUM(S14:S18)</f>
-        <v>150000</v>
-      </c>
-      <c r="Y14" s="30">
-        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
-        <v>150000</v>
-      </c>
-      <c r="Z14" s="30">
-        <f t="shared" ref="Z14" si="5">W14-Y14</f>
-        <v>1850000</v>
-      </c>
-      <c r="AA14" s="30">
-        <f t="shared" ref="AA14" si="6">Z14</f>
-        <v>1850000</v>
-      </c>
-      <c r="AB14" s="30">
-        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
-        <v>1150000</v>
-      </c>
-      <c r="AC14" s="30">
-        <f>ROUND(AB14,0)</f>
-        <v>1150000</v>
-      </c>
-      <c r="AD14" s="30">
-        <f t="shared" ref="AD14" si="7">AC14-I14</f>
-        <v>150000</v>
-      </c>
-      <c r="AE14" s="30">
-        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
-        <v>15000</v>
-      </c>
-      <c r="AF14" s="30">
-        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
-        <v>1135000</v>
+      <c r="AF14" s="21">
+        <f t="shared" ref="AF14" si="8">ROUND(AC14-AE14,0)</f>
+        <v>850000</v>
       </c>
       <c r="AG14" s="8"/>
     </row>
@@ -2907,11 +1597,6 @@
       <c r="D16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -3050,7 +1735,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,30 +1749,1446 @@
         <v>49</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>105</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
     <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="AE11:AE12"/>
     <mergeCell ref="AF11:AF12"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669CDE09-451F-4472-BA78-72FA57272C7F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AN29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE11" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF11" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="26"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20">
+        <v>2</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="20">
+        <f>IF(H13=1,I13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f>I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
+        <v>10</v>
+      </c>
+      <c r="N13" s="20">
+        <v>8</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21">
+        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="21">
+        <f>P13</f>
+        <v>8</v>
+      </c>
+      <c r="R13" s="22">
+        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21">
+        <f>SUM(T14:T18)</f>
+        <v>3000000</v>
+      </c>
+      <c r="V13" s="21">
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <v>2000000</v>
+      </c>
+      <c r="W13" s="21">
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <v>4000000</v>
+      </c>
+      <c r="X13" s="21">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="21">
+        <f>IF(X13&lt;=W13,X13,W13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="21">
+        <f>W13-Y13</f>
+        <v>4000000</v>
+      </c>
+      <c r="AA13" s="21">
+        <f>Z13</f>
+        <v>4000000</v>
+      </c>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21">
+        <f>ROUND(AA13,0)</f>
+        <v>4000000</v>
+      </c>
+      <c r="AD13" s="21">
+        <f>AC13-I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="AE13" s="21">
+        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
+        <v>200000</v>
+      </c>
+      <c r="AF13" s="21">
+        <f>ROUND(AC13-AE13,0)</f>
+        <v>3800000</v>
+      </c>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <v>3000000</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <v>3000000</v>
+      </c>
+      <c r="K14" s="20">
+        <f>K13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L14" s="20">
+        <v>3000000</v>
+      </c>
+      <c r="M14" s="20">
+        <v>2</v>
+      </c>
+      <c r="N14" s="23">
+        <v>4</v>
+      </c>
+      <c r="O14" s="20">
+        <v>1</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <v>7</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>Q13</f>
+        <v>8</v>
+      </c>
+      <c r="R14" s="22">
+        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
+        <f>IF(R14=1,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
+        <f>IF(R14=0,L14,0)</f>
+        <v>3000000</v>
+      </c>
+      <c r="U14" s="21">
+        <f>U13</f>
+        <v>3000000</v>
+      </c>
+      <c r="V14" s="21">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="W14" s="21">
+        <f t="shared" si="1"/>
+        <v>4000000</v>
+      </c>
+      <c r="X14" s="21">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="21">
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="21">
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <v>4000000</v>
+      </c>
+      <c r="AA14" s="21">
+        <f t="shared" ref="AA14" si="6">Z14</f>
+        <v>4000000</v>
+      </c>
+      <c r="AB14" s="21">
+        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
+        <v>1000000</v>
+      </c>
+      <c r="AC14" s="21">
+        <f>ROUND(AB14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="AD14" s="21">
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <v>-2000000</v>
+      </c>
+      <c r="AE14" s="21">
+        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="21">
+        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AN26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE11" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF11" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="26"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20">
+        <v>2</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="20">
+        <f>IF(H13=1,I13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f>I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
+        <v>10</v>
+      </c>
+      <c r="N13" s="20">
+        <v>8</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21">
+        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="21">
+        <f>P13</f>
+        <v>8</v>
+      </c>
+      <c r="R13" s="22">
+        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21">
+        <f>SUM(T14:T18)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="21">
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="21">
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <v>2000000</v>
+      </c>
+      <c r="X13" s="21">
+        <f>SUM(S14:S18)</f>
+        <v>150000</v>
+      </c>
+      <c r="Y13" s="21">
+        <f>IF(X13&lt;=W13,X13,W13)</f>
+        <v>150000</v>
+      </c>
+      <c r="Z13" s="21">
+        <f>W13-Y13</f>
+        <v>1850000</v>
+      </c>
+      <c r="AA13" s="21">
+        <f>Z13</f>
+        <v>1850000</v>
+      </c>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21">
+        <f>ROUND(AA13,0)</f>
+        <v>1850000</v>
+      </c>
+      <c r="AD13" s="21">
+        <f>AC13-I13</f>
+        <v>-150000</v>
+      </c>
+      <c r="AE13" s="21">
+        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="21">
+        <f>ROUND(AC13-AE13,0)</f>
+        <v>1850000</v>
+      </c>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="K14" s="20">
+        <f>K13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L14" s="20">
+        <v>150000</v>
+      </c>
+      <c r="M14" s="20">
+        <v>9</v>
+      </c>
+      <c r="N14" s="23">
+        <v>10</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21">
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <v>9</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>Q13</f>
+        <v>8</v>
+      </c>
+      <c r="R14" s="22">
+        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="21">
+        <f>IF(R14=1,L14,0)</f>
+        <v>150000</v>
+      </c>
+      <c r="T14" s="21">
+        <f>IF(R14=0,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="21">
+        <f>U13</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="21">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="X14" s="21">
+        <f>SUM(S14:S18)</f>
+        <v>150000</v>
+      </c>
+      <c r="Y14" s="21">
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <v>150000</v>
+      </c>
+      <c r="Z14" s="21">
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <v>1850000</v>
+      </c>
+      <c r="AA14" s="21">
+        <f t="shared" ref="AA14" si="6">Z14</f>
+        <v>1850000</v>
+      </c>
+      <c r="AB14" s="21">
+        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
+        <v>1150000</v>
+      </c>
+      <c r="AC14" s="21">
+        <f>ROUND(AB14,0)</f>
+        <v>1150000</v>
+      </c>
+      <c r="AD14" s="21">
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <v>150000</v>
+      </c>
+      <c r="AE14" s="21">
+        <f>ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.11,0),0)</f>
+        <v>16500</v>
+      </c>
+      <c r="AF14" s="21">
+        <f t="shared" ref="AF14" si="8">ROUND(AC14-AE14,0)</f>
+        <v>1133500</v>
+      </c>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="T11:T12"/>
     <mergeCell ref="AC11:AC12"/>
     <mergeCell ref="F10:O10"/>
     <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3098,7 +3199,7 @@
   <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,24 +3579,1101 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7121D5EC-B4C4-417D-AE39-1AF0EBC3B4AE}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF11" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG11" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="26"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="26"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
+        <v>2</v>
+      </c>
+      <c r="J13" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="K13" s="20">
+        <f>IF(I13=1,J13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <f>J13</f>
+        <v>2000000</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20">
+        <v>7</v>
+      </c>
+      <c r="O13" s="20">
+        <v>10</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="21">
+        <f>IF(SUM(O13,N13,P13)&lt;10,SUM(O13,N13,P13),IF(SUM(O13,N13,P13)&lt;20,SUM(O13,N13,P13)-10,IF(SUM(O13,N13,P13)&lt;30,SUM(O13,N13,P13)-20,SUM(O13,N13,P13)-30)))</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="21">
+        <f>Q13</f>
+        <v>7</v>
+      </c>
+      <c r="S13" s="22">
+        <f>IF(W13&gt;Z13,1, IF(W13=Z13,-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21">
+        <f>SUM(U14:U18)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="21">
+        <f t="shared" ref="W13:W14" si="0">IF(V13&lt;=L13,V13,L13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="21">
+        <f t="shared" ref="X13:X14" si="1">SUM(L13,W13)</f>
+        <v>2000000</v>
+      </c>
+      <c r="Y13" s="21">
+        <f>SUM(T14:T18)</f>
+        <v>3000000</v>
+      </c>
+      <c r="Z13" s="21">
+        <f>IF(Y13&lt;=X13,Y13,X13)</f>
+        <v>2000000</v>
+      </c>
+      <c r="AA13" s="21">
+        <f>X13-Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="21">
+        <f>AA13</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21">
+        <f>ROUND(AB13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="21">
+        <f>AD13-J13</f>
+        <v>-2000000</v>
+      </c>
+      <c r="AF13" s="21">
+        <f>ROUND(IF(AD13-J13&gt;0,(AD13-J13)*0.1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="21">
+        <f>ROUND(AD13-AF13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="19">
+        <v>2</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
+        <v>1</v>
+      </c>
+      <c r="J14" s="20">
+        <v>3000000</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" ref="K14" si="2">IF(I14=1,J14,0)</f>
+        <v>3000000</v>
+      </c>
+      <c r="L14" s="20">
+        <f>L13</f>
+        <v>2000000</v>
+      </c>
+      <c r="M14" s="20">
+        <v>3000000</v>
+      </c>
+      <c r="N14" s="20">
+        <v>4</v>
+      </c>
+      <c r="O14" s="23">
+        <v>4</v>
+      </c>
+      <c r="P14" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="21">
+        <f t="shared" ref="Q14" si="3">IF(SUM(O14,N14,P14)&lt;10,SUM(O14,N14,P14),IF(SUM(O14,N14,P14)&lt;20,SUM(O14,N14,P14)-10,IF(SUM(O14,N14,P14)&lt;30,SUM(O14,N14,P14)-20,SUM(O14,N14,P14)-30)))</f>
+        <v>9</v>
+      </c>
+      <c r="R14" s="21">
+        <f>R13</f>
+        <v>7</v>
+      </c>
+      <c r="S14" s="22">
+        <f>IF(Q14&gt;R14,1,IF(Q14=R14,-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="21">
+        <f>IF(S14=1,M14,0)</f>
+        <v>3000000</v>
+      </c>
+      <c r="U14" s="21">
+        <f>IF(S14=0,M14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="21">
+        <f>V13</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="21">
+        <f t="shared" si="1"/>
+        <v>2000000</v>
+      </c>
+      <c r="Y14" s="21">
+        <f>SUM(T14:T18)</f>
+        <v>3000000</v>
+      </c>
+      <c r="Z14" s="21">
+        <f t="shared" ref="Z14" si="4">IF(Y14&lt;=X14,Y14,X14)</f>
+        <v>2000000</v>
+      </c>
+      <c r="AA14" s="21">
+        <f t="shared" ref="AA14" si="5">X14-Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="21">
+        <f t="shared" ref="AB14" si="6">AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="21">
+        <f>IF(S14=1,K14+T14/Y14*Z14, IF(S14=0,K14-U14/V14*W14,J14))</f>
+        <v>5000000</v>
+      </c>
+      <c r="AD14" s="21">
+        <f>ROUND(AC14,0)</f>
+        <v>5000000</v>
+      </c>
+      <c r="AE14" s="21">
+        <f t="shared" ref="AE14" si="7">AD14-J14</f>
+        <v>2000000</v>
+      </c>
+      <c r="AF14" s="21">
+        <f t="shared" ref="AF14" si="8">ROUND(IF(AD14-J14&gt;0,(AD14-J14)*0.1,0),0)</f>
+        <v>200000</v>
+      </c>
+      <c r="AG14" s="21">
+        <f t="shared" ref="AG14" si="9">ROUND(AD14-AF14,0)</f>
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="G10:P10"/>
+    <mergeCell ref="Q10:AG10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8834AD32-30AA-4CB2-B695-B7056ED3E834}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="35" width="9.140625" style="8" collapsed="1"/>
+    <col min="36" max="36" width="9.140625" style="8"/>
+    <col min="37" max="37" width="9.140625" style="8" collapsed="1"/>
+    <col min="38" max="40" width="9.140625" style="8"/>
+    <col min="41" max="16384" width="9.140625" style="8" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+    </row>
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5920,7 +7098,7 @@
   <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6300,10 +7478,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B3A5C-5E46-47CA-A2E8-3DFE7C09C665}">
-  <dimension ref="A1:AN27"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6349,8 +7530,8 @@
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>117</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -6383,104 +7564,104 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
+      <c r="F10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
     </row>
     <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="H11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="I11" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="J11" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="K11" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="L11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="M11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="19" t="s">
+      <c r="S11" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18" t="s">
+      <c r="T11" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="AD11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="18" t="s">
+      <c r="AE11" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AD11" s="23" t="s">
+      <c r="AF11" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF11" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
@@ -6496,58 +7677,58 @@
       <c r="D12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="24" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="R12" s="26"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22" t="s">
+      <c r="V12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="24" t="s">
+      <c r="W12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="V12" s="27" t="s">
+      <c r="X12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="W12" s="24" t="s">
+      <c r="Y12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="X12" s="24" t="s">
+      <c r="Z12" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="AA12" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="Z12" s="24" t="s">
+      <c r="AB12" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="AA12" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="18"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="26"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -6563,89 +7744,89 @@
       <c r="D13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20">
         <v>2</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="20">
         <v>2000000</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="20">
         <f>IF(H13=1,I13,0)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="20">
         <f>I13</f>
         <v>2000000</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29">
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
         <v>7</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="20">
         <v>1</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30">
+      <c r="O13" s="20"/>
+      <c r="P13" s="21">
         <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
         <v>8</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="21">
         <f>P13</f>
         <v>8</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="22">
         <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30">
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21">
         <f>SUM(T14:T18)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="30">
+      <c r="V13" s="21">
         <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="30">
+      <c r="W13" s="21">
         <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
         <v>2000000</v>
       </c>
-      <c r="X13" s="30">
+      <c r="X13" s="21">
         <f>SUM(S14:S18)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="30">
+      <c r="Y13" s="21">
         <f>IF(X13&lt;=W13,X13,W13)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="30">
+      <c r="Z13" s="21">
         <f>W13-Y13</f>
         <v>2000000</v>
       </c>
-      <c r="AA13" s="30">
+      <c r="AA13" s="21">
         <f>Z13</f>
         <v>2000000</v>
       </c>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30">
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21">
         <f>ROUND(AA13,0)</f>
         <v>2000000</v>
       </c>
-      <c r="AD13" s="30">
+      <c r="AD13" s="21">
         <f>AC13-I13</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="30">
+      <c r="AE13" s="21">
         <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="30">
+      <c r="AF13" s="21">
         <f>ROUND(AC13-AE13,0)</f>
         <v>2000000</v>
       </c>
@@ -6664,102 +7845,102 @@
       <c r="D14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="19">
         <v>2</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20">
         <v>1</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="20">
         <v>1000000</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="20">
         <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="20">
         <f>K13</f>
         <v>2000000</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="20">
         <v>150000</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="20">
         <v>3</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="23">
         <v>1</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="20">
         <v>4</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="21">
         <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>8</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="21">
         <f>Q13</f>
         <v>8</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="22">
         <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="S14" s="30">
+      <c r="S14" s="21">
         <f>IF(R14=1,L14,0)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="30">
+      <c r="T14" s="21">
         <f>IF(R14=0,L14,0)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="30">
+      <c r="U14" s="21">
         <f>U13</f>
         <v>0</v>
       </c>
-      <c r="V14" s="30">
+      <c r="V14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W14" s="30">
+      <c r="W14" s="21">
         <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
-      <c r="X14" s="30">
+      <c r="X14" s="21">
         <f>SUM(S14:S18)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="30">
+      <c r="Y14" s="21">
         <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="30">
+      <c r="Z14" s="21">
         <f t="shared" ref="Z14" si="5">W14-Y14</f>
         <v>2000000</v>
       </c>
-      <c r="AA14" s="30">
+      <c r="AA14" s="21">
         <f t="shared" ref="AA14" si="6">Z14</f>
         <v>2000000</v>
       </c>
-      <c r="AB14" s="30">
+      <c r="AB14" s="21">
         <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
         <v>1000000</v>
       </c>
-      <c r="AC14" s="30">
+      <c r="AC14" s="21">
         <f>ROUND(AB14,0)</f>
         <v>1000000</v>
       </c>
-      <c r="AD14" s="30">
+      <c r="AD14" s="21">
         <f t="shared" ref="AD14" si="7">AC14-I14</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="30">
+      <c r="AE14" s="21">
         <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="30">
+      <c r="AF14" s="21">
         <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
         <v>1000000</v>
       </c>
@@ -6952,27 +8133,55 @@
         <v>51</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
     <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="AE11:AE12"/>
     <mergeCell ref="AF11:AF12"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="P10:AF10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelFile/CalcGoldTest.xlsx
+++ b/ExcelFile/CalcGoldTest.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D02E3BC1-83B7-4AA3-8915-0244D997719D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0069D-015B-4BA8-9F92-DB3229985881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="13" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}" yWindow="-120"/>
+    <workbookView xWindow="3060" yWindow="1050" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" r:id="rId1" sheetId="1"/>
-    <sheet name="TC1" r:id="rId2" sheetId="2"/>
-    <sheet name="TC2" r:id="rId3" sheetId="3"/>
-    <sheet name="TC21" r:id="rId4" sheetId="16"/>
-    <sheet name="TC22" r:id="rId5" sheetId="17"/>
-    <sheet name="TC23" r:id="rId6" sheetId="18"/>
-    <sheet name="TC3" r:id="rId7" sheetId="4"/>
-    <sheet name="TC4" r:id="rId8" sheetId="5"/>
-    <sheet name="TC5" r:id="rId9" sheetId="6"/>
-    <sheet name="TC6" r:id="rId10" sheetId="7"/>
-    <sheet name="TC7" r:id="rId11" sheetId="8"/>
-    <sheet name="TC8" r:id="rId12" sheetId="10"/>
-    <sheet name="TC9" r:id="rId13" sheetId="9"/>
-    <sheet name="TC10" r:id="rId14" sheetId="12"/>
+    <sheet name="Status" sheetId="1" r:id="rId1"/>
+    <sheet name="TC1" sheetId="2" r:id="rId2"/>
+    <sheet name="TC2" sheetId="3" r:id="rId3"/>
+    <sheet name="TC21" sheetId="16" r:id="rId4"/>
+    <sheet name="TC22" sheetId="17" r:id="rId5"/>
+    <sheet name="TC23" sheetId="18" r:id="rId6"/>
+    <sheet name="TC3" sheetId="4" r:id="rId7"/>
+    <sheet name="TC4" sheetId="5" r:id="rId8"/>
+    <sheet name="TC5" sheetId="6" r:id="rId9"/>
+    <sheet name="TC6" sheetId="7" r:id="rId10"/>
+    <sheet name="TC7" sheetId="8" r:id="rId11"/>
+    <sheet name="TC8" sheetId="10" r:id="rId12"/>
+    <sheet name="TC9" sheetId="9" r:id="rId13"/>
+    <sheet name="TC10" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="126">
   <si>
     <t>Test case</t>
   </si>
@@ -362,74 +362,76 @@
     <t>gold:1133500</t>
   </si>
   <si>
+    <t>dragDrop</t>
+  </si>
+  <si>
+    <t>drag.png|drop.png</t>
+  </si>
+  <si>
+    <t>5100</t>
+  </si>
+  <si>
+    <t>1|1611</t>
+  </si>
+  <si>
+    <t>2|1612</t>
+  </si>
+  <si>
+    <t>3|1613</t>
+  </si>
+  <si>
+    <t>gold:2333750</t>
+  </si>
+  <si>
+    <t>gold:1275000</t>
+  </si>
+  <si>
+    <t>TC21</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>name:btn_Channel|width:160</t>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>gold:8500000</t>
+  </si>
+  <si>
     <t>fail</t>
-  </si>
-  <si>
-    <t>dragDrop</t>
-  </si>
-  <si>
-    <t>drag.png|drop.png</t>
-  </si>
-  <si>
-    <t>5100</t>
-  </si>
-  <si>
-    <t>1|1611</t>
-  </si>
-  <si>
-    <t>2|1612</t>
-  </si>
-  <si>
-    <t>3|1613</t>
-  </si>
-  <si>
-    <t>gold:2333750</t>
-  </si>
-  <si>
-    <t>gold:1275000</t>
-  </si>
-  <si>
-    <t>TC21</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>name:btn_Channel|width:160</t>
-  </si>
-  <si>
-    <t>TC22</t>
-  </si>
-  <si>
-    <t>TC23</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,95 +577,95 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="11" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -680,10 +682,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -718,7 +720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -770,7 +772,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -881,21 +883,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -912,7 +914,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -964,33 +966,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1010200-FB7E-4A2D-A5D1-6A49A284C870}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1010200-FB7E-4A2D-A5D1-6A49A284C870}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="38.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="58.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1016,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1064,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1072,7 @@
         <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,12 +1080,12 @@
         <v>96</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -1091,7 +1093,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -1099,20 +1101,20 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13DC07E-A11E-444E-A749-45B3930F3057}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13DC07E-A11E-444E-A749-45B3930F3057}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1120,13 +1122,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1175,9 +1177,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1219,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1485,13 +1487,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0648B-A23C-4939-8C83-4D0DC4A360D1}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0648B-A23C-4939-8C83-4D0DC4A360D1}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -1499,13 +1501,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1554,9 +1556,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1596,7 +1598,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1864,16 +1866,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B3A5C-5E46-47CA-A2E8-3DFE7C09C665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B3A5C-5E46-47CA-A2E8-3DFE7C09C665}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -1881,13 +1883,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1936,9 +1938,9 @@
         <v>61</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1984,7 +1986,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2178,11 +2180,11 @@
         <v>0</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>0</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
         <v>2000000</v>
       </c>
       <c r="X13" s="21">
@@ -2231,7 +2233,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -2245,7 +2247,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -2265,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>8</v>
       </c>
       <c r="Q14" s="21">
@@ -2289,11 +2291,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="X14" s="21">
@@ -2301,15 +2303,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14" si="5" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
         <v>2000000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14" si="6" t="shared">Z14</f>
+        <f t="shared" ref="AA14" si="6">Z14</f>
         <v>2000000</v>
       </c>
       <c r="AB14" s="21">
@@ -2321,15 +2323,15 @@
         <v>1000000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14" si="7" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
         <v>0</v>
       </c>
       <c r="AE14" s="21">
-        <f ref="AE14" si="8" t="shared">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
+        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
         <v>1000000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -2345,7 +2347,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2392,7 +2394,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,7 +2422,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,10 +2433,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,10 +2447,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,7 +2492,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,16 +2629,16 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D2B06-93B1-4DA5-99D9-D7FD97E68E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D2B06-93B1-4DA5-99D9-D7FD97E68E4A}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -2644,13 +2646,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -2699,9 +2701,9 @@
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -2747,7 +2749,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2941,11 +2943,11 @@
         <v>150000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>150000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
         <v>2150000</v>
       </c>
       <c r="X13" s="21">
@@ -2994,7 +2996,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -3008,7 +3010,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -3028,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>7</v>
       </c>
       <c r="Q14" s="21">
@@ -3052,11 +3054,11 @@
         <v>150000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2150000</v>
       </c>
       <c r="X14" s="21">
@@ -3064,15 +3066,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14" si="5" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
         <v>2150000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14" si="6" t="shared">Z14</f>
+        <f t="shared" ref="AA14" si="6">Z14</f>
         <v>2150000</v>
       </c>
       <c r="AB14" s="21">
@@ -3084,7 +3086,7 @@
         <v>850000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14" si="7" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
         <v>-150000</v>
       </c>
       <c r="AE14" s="21">
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14" si="8" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14" si="8">ROUND(AC14-AE14,0)</f>
         <v>850000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -3108,7 +3110,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3155,7 +3157,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3183,7 +3185,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,10 +3196,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,10 +3210,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3253,7 +3255,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,30 +3392,30 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -3462,9 +3464,9 @@
         <v>99</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -3510,7 +3512,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -3704,11 +3706,11 @@
         <v>0</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>0</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
         <v>2000000</v>
       </c>
       <c r="X13" s="21">
@@ -3757,7 +3759,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -3771,7 +3773,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -3789,7 +3791,7 @@
       </c>
       <c r="O14" s="20"/>
       <c r="P14" s="21">
-        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>9</v>
       </c>
       <c r="Q14" s="21">
@@ -3813,11 +3815,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="X14" s="21">
@@ -3825,15 +3827,15 @@
         <v>150000</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>150000</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14" si="5" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
         <v>1850000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14" si="6" t="shared">Z14</f>
+        <f t="shared" ref="AA14" si="6">Z14</f>
         <v>1850000</v>
       </c>
       <c r="AB14" s="21">
@@ -3845,7 +3847,7 @@
         <v>1150000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14" si="7" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
         <v>150000</v>
       </c>
       <c r="AE14" s="21">
@@ -3853,7 +3855,7 @@
         <v>16500</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14" si="8" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14" si="8">ROUND(AC14-AE14,0)</f>
         <v>1133500</v>
       </c>
       <c r="AG14" s="8"/>
@@ -3869,7 +3871,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3921,7 +3923,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,7 +3951,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3960,10 +3962,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,10 +3976,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,7 +4021,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,13 +4158,13 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D0B372-8D14-430A-8460-4C1F2CD08C7E}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D0B372-8D14-430A-8460-4C1F2CD08C7E}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -4170,13 +4172,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -4225,9 +4227,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4267,7 +4269,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -4535,30 +4537,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75E48C-2F2B-43CD-B98E-D707A881D9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75E48C-2F2B-43CD-B98E-D707A881D9A3}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -4590,7 +4592,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -4607,9 +4609,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4655,7 +4657,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="32"/>
@@ -4801,7 +4803,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -4849,11 +4851,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -4882,7 +4884,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -4902,7 +4904,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -4916,7 +4918,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -4936,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -4960,11 +4962,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -4972,15 +4974,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -4992,15 +4994,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -5016,7 +5018,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -5030,7 +5032,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -5050,7 +5052,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -5058,7 +5060,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -5074,11 +5076,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -5086,15 +5088,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -5102,19 +5104,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -5130,7 +5132,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -5149,7 +5151,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -5210,7 +5212,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -5252,7 +5254,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -5263,10 +5265,10 @@
         <v>33</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -5280,7 +5282,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -5308,7 +5310,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -5336,7 +5338,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -5364,29 +5366,29 @@
         <v>35</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>31</v>
@@ -5397,141 +5399,99 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>31</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>32</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>33</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5557,30 +5517,30 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325884A3-762C-497D-AD93-17170BEC7BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325884A3-762C-497D-AD93-17170BEC7BD0}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -5629,9 +5589,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -5677,7 +5637,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -5745,7 +5705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -5756,7 +5716,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="32"/>
@@ -5823,7 +5783,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -5871,11 +5831,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -5904,7 +5864,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -5924,7 +5884,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -5938,7 +5898,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -5958,7 +5918,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -5982,11 +5942,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -5994,15 +5954,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -6014,15 +5974,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -6038,7 +5998,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -6052,7 +6012,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -6072,7 +6032,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -6080,7 +6040,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -6096,11 +6056,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -6108,15 +6068,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -6124,19 +6084,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -6152,7 +6112,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -6171,7 +6131,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -6232,7 +6192,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -6274,7 +6234,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -6285,10 +6245,10 @@
         <v>33</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -6302,7 +6262,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -6330,7 +6290,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -6358,7 +6318,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -6386,7 +6346,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,7 +6360,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,7 +6388,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6484,7 +6444,7 @@
         <v>49</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,7 +6458,7 @@
         <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6579,30 +6539,30 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9AF40-4D46-49BE-AE26-5091A88E9B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9AF40-4D46-49BE-AE26-5091A88E9B5F}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -6651,9 +6611,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -6699,7 +6659,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -6767,7 +6727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -6778,7 +6738,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="32"/>
@@ -6845,7 +6805,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -6893,11 +6853,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -6926,7 +6886,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -6946,7 +6906,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -6960,7 +6920,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -6980,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -7004,11 +6964,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -7016,15 +6976,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -7036,15 +6996,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -7060,7 +7020,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -7074,7 +7034,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -7094,7 +7054,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -7102,7 +7062,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -7118,11 +7078,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -7130,15 +7090,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -7146,19 +7106,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -7174,7 +7134,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -7193,7 +7153,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -7254,7 +7214,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -7296,7 +7256,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -7307,10 +7267,10 @@
         <v>33</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -7324,7 +7284,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -7352,7 +7312,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -7380,7 +7340,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -7408,7 +7368,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7422,7 +7382,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7450,7 +7410,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7506,7 +7466,7 @@
         <v>49</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -7520,7 +7480,7 @@
         <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -7601,16 +7561,16 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F4743-9AF7-4CEE-A6DD-A1B7C98E08DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F4743-9AF7-4CEE-A6DD-A1B7C98E08DD}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
@@ -7618,13 +7578,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -7673,9 +7633,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7721,7 +7681,7 @@
       <c r="AE10" s="31"/>
       <c r="AF10" s="31"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -7789,7 +7749,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -7800,7 +7760,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="32"/>
@@ -7867,7 +7827,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -7915,11 +7875,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -7948,7 +7908,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -7968,7 +7928,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -7982,7 +7942,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -8002,7 +7962,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -8026,11 +7986,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -8038,15 +7998,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -8058,15 +8018,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -8082,7 +8042,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -8096,7 +8056,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -8116,7 +8076,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -8124,7 +8084,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -8140,11 +8100,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -8152,15 +8112,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -8168,19 +8128,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -8196,7 +8156,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -8215,7 +8175,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -8276,7 +8236,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -8318,7 +8278,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -8329,10 +8289,10 @@
         <v>33</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -8346,7 +8306,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -8374,7 +8334,7 @@
         <v>35</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -8402,7 +8362,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -8430,7 +8390,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8444,7 +8404,7 @@
         <v>49</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8472,7 +8432,7 @@
         <v>49</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8528,7 +8488,7 @@
         <v>49</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8542,7 +8502,7 @@
         <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8623,13 +8583,13 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9A1C9-E74F-4AAD-BAAF-9E465071BE05}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9A1C9-E74F-4AAD-BAAF-9E465071BE05}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
@@ -8637,13 +8597,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -8692,9 +8652,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -8734,7 +8694,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -9002,13 +8962,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E090EE-26F7-43B2-A9A5-D458D835AFA6}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E090EE-26F7-43B2-A9A5-D458D835AFA6}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -9016,13 +8976,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -9071,9 +9031,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -9113,7 +9073,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -9381,13 +9341,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F03283-7EE3-4ED6-A353-0470994C7A54}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F03283-7EE3-4ED6-A353-0470994C7A54}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -9395,13 +9355,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -9450,9 +9410,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -9492,7 +9452,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -9760,6 +9720,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelFile/CalcGoldTest.xlsx
+++ b/ExcelFile/CalcGoldTest.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D0069D-015B-4BA8-9F92-DB3229985881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9A378C22-31FB-497B-AB89-B7983B54DBB8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1050" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}"/>
+    <workbookView activeTab="11" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" sheetId="1" r:id="rId1"/>
-    <sheet name="TC1" sheetId="2" r:id="rId2"/>
-    <sheet name="TC2" sheetId="3" r:id="rId3"/>
-    <sheet name="TC21" sheetId="16" r:id="rId4"/>
-    <sheet name="TC22" sheetId="17" r:id="rId5"/>
-    <sheet name="TC23" sheetId="18" r:id="rId6"/>
-    <sheet name="TC3" sheetId="4" r:id="rId7"/>
-    <sheet name="TC4" sheetId="5" r:id="rId8"/>
-    <sheet name="TC5" sheetId="6" r:id="rId9"/>
-    <sheet name="TC6" sheetId="7" r:id="rId10"/>
-    <sheet name="TC7" sheetId="8" r:id="rId11"/>
-    <sheet name="TC8" sheetId="10" r:id="rId12"/>
-    <sheet name="TC9" sheetId="9" r:id="rId13"/>
-    <sheet name="TC10" sheetId="12" r:id="rId14"/>
+    <sheet name="Status" r:id="rId1" sheetId="1"/>
+    <sheet name="TC1" r:id="rId2" sheetId="2"/>
+    <sheet name="TC2" r:id="rId3" sheetId="3"/>
+    <sheet name="TC21" r:id="rId4" sheetId="16" state="hidden"/>
+    <sheet name="TC22" r:id="rId5" sheetId="17" state="hidden"/>
+    <sheet name="TC23" r:id="rId6" sheetId="18" state="hidden"/>
+    <sheet name="TC3" r:id="rId7" sheetId="4"/>
+    <sheet name="TC4" r:id="rId8" sheetId="5"/>
+    <sheet name="TC5" r:id="rId9" sheetId="6"/>
+    <sheet name="TC6" r:id="rId10" sheetId="7"/>
+    <sheet name="TC7" r:id="rId11" sheetId="8"/>
+    <sheet name="TC8" r:id="rId12" sheetId="10"/>
+    <sheet name="TC9" r:id="rId13" sheetId="9"/>
+    <sheet name="TC10" r:id="rId14" sheetId="12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="138">
   <si>
     <t>Test case</t>
   </si>
@@ -368,9 +368,6 @@
     <t>drag.png|drop.png</t>
   </si>
   <si>
-    <t>5100</t>
-  </si>
-  <si>
     <t>1|1611</t>
   </si>
   <si>
@@ -389,12 +386,6 @@
     <t>TC21</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>name:btn_Channel|width:160</t>
   </si>
   <si>
@@ -404,34 +395,80 @@
     <t>TC23</t>
   </si>
   <si>
-    <t>8500</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
-    <t>2200</t>
-  </si>
-  <si>
     <t>9000</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>gold:8500000</t>
-  </si>
-  <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>name:btn_BetAll</t>
+  </si>
+  <si>
+    <t>gold:3780000</t>
+  </si>
+  <si>
+    <t>gold:300000</t>
+  </si>
+  <si>
+    <t>gold:200000</t>
+  </si>
+  <si>
+    <t>gold:3000000</t>
+  </si>
+  <si>
+    <t>6100</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>6700</t>
+  </si>
+  <si>
+    <t>6300</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,95 +614,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="38">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="11" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -682,10 +723,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -720,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -772,7 +813,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -883,21 +924,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -914,7 +955,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -966,33 +1007,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1010200-FB7E-4A2D-A5D1-6A49A284C870}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1010200-FB7E-4A2D-A5D1-6A49A284C870}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="38.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="58.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1105,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1126,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -1093,7 +1134,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -1101,20 +1142,20 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13DC07E-A11E-444E-A749-45B3930F3057}">
-  <dimension ref="A1:AG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13DC07E-A11E-444E-A749-45B3930F3057}">
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1122,13 +1163,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1177,9 +1218,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1219,7 +1260,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1487,13 +1528,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0648B-A23C-4939-8C83-4D0DC4A360D1}">
-  <dimension ref="A1:AG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0648B-A23C-4939-8C83-4D0DC4A360D1}">
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -1501,13 +1542,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1556,9 +1597,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1639,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1866,30 +1907,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B3A5C-5E46-47CA-A2E8-3DFE7C09C665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B3A5C-5E46-47CA-A2E8-3DFE7C09C665}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1938,9 +1979,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1954,83 +1995,83 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="16"/>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U11" s="17"/>
@@ -2041,20 +2082,20 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="29" t="s">
+      <c r="AC11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="AD11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="29" t="s">
+      <c r="AF11" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2067,14 +2108,14 @@
       <c r="D12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="17" t="s">
         <v>82</v>
       </c>
@@ -2084,13 +2125,13 @@
       <c r="O12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="17" t="s">
         <v>86</v>
       </c>
@@ -2115,10 +2156,10 @@
       <c r="AB12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="29"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="31"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2180,11 +2221,11 @@
         <v>0</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
         <v>0</v>
       </c>
       <c r="W13" s="21">
-        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
         <v>2000000</v>
       </c>
       <c r="X13" s="21">
@@ -2233,7 +2274,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -2247,7 +2288,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -2267,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>8</v>
       </c>
       <c r="Q14" s="21">
@@ -2291,11 +2332,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="W14" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2000000</v>
       </c>
       <c r="X14" s="21">
@@ -2303,15 +2344,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <f ref="Z14" si="5" t="shared">W14-Y14</f>
         <v>2000000</v>
       </c>
       <c r="AA14" s="21">
-        <f t="shared" ref="AA14" si="6">Z14</f>
+        <f ref="AA14" si="6" t="shared">Z14</f>
         <v>2000000</v>
       </c>
       <c r="AB14" s="21">
@@ -2323,15 +2364,15 @@
         <v>1000000</v>
       </c>
       <c r="AD14" s="21">
-        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <f ref="AD14" si="7" t="shared">AC14-I14</f>
         <v>0</v>
       </c>
       <c r="AE14" s="21">
-        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
+        <f ref="AE14" si="8" t="shared">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
+        <f ref="AF14" si="9" t="shared">ROUND(AC14-AE14,0)</f>
         <v>1000000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -2347,7 +2388,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2394,7 +2435,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,7 +2463,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,7 +2505,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,7 +2533,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,30 +2670,30 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D2B06-93B1-4DA5-99D9-D7FD97E68E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D2B06-93B1-4DA5-99D9-D7FD97E68E4A}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -2701,9 +2742,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -2717,83 +2758,83 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="24"/>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U11" s="17"/>
@@ -2804,20 +2845,20 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="29" t="s">
+      <c r="AC11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="AD11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="29" t="s">
+      <c r="AF11" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2830,14 +2871,14 @@
       <c r="D12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="17" t="s">
         <v>82</v>
       </c>
@@ -2847,13 +2888,13 @@
       <c r="O12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="17" t="s">
         <v>86</v>
       </c>
@@ -2878,10 +2919,10 @@
       <c r="AB12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="29"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="31"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2943,11 +2984,11 @@
         <v>150000</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
         <v>150000</v>
       </c>
       <c r="W13" s="21">
-        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
         <v>2150000</v>
       </c>
       <c r="X13" s="21">
@@ -2996,7 +3037,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -3010,7 +3051,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -3030,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>7</v>
       </c>
       <c r="Q14" s="21">
@@ -3054,11 +3095,11 @@
         <v>150000</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>150000</v>
       </c>
       <c r="W14" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2150000</v>
       </c>
       <c r="X14" s="21">
@@ -3066,15 +3107,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <f ref="Z14" si="5" t="shared">W14-Y14</f>
         <v>2150000</v>
       </c>
       <c r="AA14" s="21">
-        <f t="shared" ref="AA14" si="6">Z14</f>
+        <f ref="AA14" si="6" t="shared">Z14</f>
         <v>2150000</v>
       </c>
       <c r="AB14" s="21">
@@ -3086,7 +3127,7 @@
         <v>850000</v>
       </c>
       <c r="AD14" s="21">
-        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <f ref="AD14" si="7" t="shared">AC14-I14</f>
         <v>-150000</v>
       </c>
       <c r="AE14" s="21">
@@ -3094,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" ref="AF14" si="8">ROUND(AC14-AE14,0)</f>
+        <f ref="AF14" si="8" t="shared">ROUND(AC14-AE14,0)</f>
         <v>850000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -3110,7 +3151,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3157,7 +3198,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,7 +3226,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,7 +3296,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,30 +3433,30 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -3464,9 +3505,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -3480,83 +3521,83 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="24"/>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U11" s="17"/>
@@ -3567,20 +3608,20 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="29" t="s">
+      <c r="AC11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="AD11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="29" t="s">
+      <c r="AF11" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -3593,14 +3634,14 @@
       <c r="D12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="17" t="s">
         <v>82</v>
       </c>
@@ -3610,13 +3651,13 @@
       <c r="O12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="17" t="s">
         <v>86</v>
       </c>
@@ -3641,10 +3682,10 @@
       <c r="AB12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="29"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="31"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -3706,11 +3747,11 @@
         <v>0</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
         <v>0</v>
       </c>
       <c r="W13" s="21">
-        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
+        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
         <v>2000000</v>
       </c>
       <c r="X13" s="21">
@@ -3759,7 +3800,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -3773,7 +3814,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
+        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -3791,7 +3832,7 @@
       </c>
       <c r="O14" s="20"/>
       <c r="P14" s="21">
-        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>9</v>
       </c>
       <c r="Q14" s="21">
@@ -3815,11 +3856,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="W14" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2000000</v>
       </c>
       <c r="X14" s="21">
@@ -3827,15 +3868,15 @@
         <v>150000</v>
       </c>
       <c r="Y14" s="21">
-        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
+        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
         <v>150000</v>
       </c>
       <c r="Z14" s="21">
-        <f t="shared" ref="Z14" si="5">W14-Y14</f>
+        <f ref="Z14" si="5" t="shared">W14-Y14</f>
         <v>1850000</v>
       </c>
       <c r="AA14" s="21">
-        <f t="shared" ref="AA14" si="6">Z14</f>
+        <f ref="AA14" si="6" t="shared">Z14</f>
         <v>1850000</v>
       </c>
       <c r="AB14" s="21">
@@ -3847,7 +3888,7 @@
         <v>1150000</v>
       </c>
       <c r="AD14" s="21">
-        <f t="shared" ref="AD14" si="7">AC14-I14</f>
+        <f ref="AD14" si="7" t="shared">AC14-I14</f>
         <v>150000</v>
       </c>
       <c r="AE14" s="21">
@@ -3855,7 +3896,7 @@
         <v>16500</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" ref="AF14" si="8">ROUND(AC14-AE14,0)</f>
+        <f ref="AF14" si="8" t="shared">ROUND(AC14-AE14,0)</f>
         <v>1133500</v>
       </c>
       <c r="AG14" s="8"/>
@@ -3871,7 +3912,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -3923,7 +3964,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,7 +3992,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,7 +4062,7 @@
         <v>35</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4158,13 +4199,13 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D0B372-8D14-430A-8460-4C1F2CD08C7E}">
-  <dimension ref="A1:AG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D0B372-8D14-430A-8460-4C1F2CD08C7E}">
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -4172,13 +4213,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -4227,9 +4268,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4269,7 +4310,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -4537,30 +4578,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75E48C-2F2B-43CD-B98E-D707A881D9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75E48C-2F2B-43CD-B98E-D707A881D9A3}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -4592,7 +4633,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -4609,9 +4650,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4625,83 +4666,83 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="25"/>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U11" s="17"/>
@@ -4712,20 +4753,20 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="29" t="s">
+      <c r="AC11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="AD11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="29" t="s">
+      <c r="AF11" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -4736,16 +4777,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="17" t="s">
         <v>82</v>
       </c>
@@ -4755,13 +4796,13 @@
       <c r="O12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="17" t="s">
         <v>86</v>
       </c>
@@ -4786,10 +4827,10 @@
       <c r="AB12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="29"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="31"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -4803,7 +4844,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -4851,11 +4892,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
+        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -4884,7 +4925,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -4904,7 +4945,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -4918,7 +4959,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
+        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -4938,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -4962,11 +5003,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -4974,15 +5015,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
+        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
+        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
+        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -4994,15 +5035,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
+        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
+        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -5018,7 +5059,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -5032,7 +5073,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -5052,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -5060,7 +5101,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -5076,11 +5117,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -5088,15 +5129,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f t="shared" si="6"/>
+        <f si="6" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -5104,19 +5145,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
+        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f t="shared" si="8"/>
+        <f si="8" t="shared"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -5132,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -5151,7 +5192,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -5206,13 +5247,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -5248,13 +5289,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -5276,13 +5317,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -5293,10 +5334,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -5304,13 +5345,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>113</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -5338,7 +5379,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -5366,12 +5407,12 @@
         <v>35</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>28</v>
@@ -5385,7 +5426,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>33</v>
@@ -5399,7 +5440,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>13</v>
@@ -5413,7 +5454,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>28</v>
@@ -5422,12 +5463,12 @@
         <v>49</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>33</v>
@@ -5436,12 +5477,12 @@
         <v>49</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>13</v>
@@ -5450,12 +5491,12 @@
         <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>25</v>
@@ -5469,7 +5510,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>25</v>
@@ -5483,7 +5524,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>25</v>
@@ -5517,30 +5558,30 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325884A3-762C-497D-AD93-17170BEC7BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325884A3-762C-497D-AD93-17170BEC7BD0}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -5589,9 +5630,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -5605,83 +5646,83 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="26"/>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U11" s="17"/>
@@ -5692,20 +5733,20 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="29" t="s">
+      <c r="AC11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="AD11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="29" t="s">
+      <c r="AF11" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -5716,16 +5757,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="17" t="s">
         <v>82</v>
       </c>
@@ -5735,13 +5776,13 @@
       <c r="O12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="17" t="s">
         <v>86</v>
       </c>
@@ -5766,10 +5807,10 @@
       <c r="AB12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="29"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="31"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -5783,7 +5824,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -5831,11 +5872,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
+        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -5864,7 +5905,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -5884,7 +5925,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -5898,7 +5939,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
+        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -5918,7 +5959,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -5942,11 +5983,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -5954,15 +5995,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
+        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
+        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
+        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -5974,15 +6015,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
+        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
+        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -5998,7 +6039,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -6012,7 +6053,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -6032,7 +6073,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -6040,7 +6081,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -6056,11 +6097,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -6068,15 +6109,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f t="shared" si="6"/>
+        <f si="6" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -6084,19 +6125,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
+        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f t="shared" si="8"/>
+        <f si="8" t="shared"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -6112,7 +6153,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -6131,7 +6172,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -6186,13 +6227,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -6228,13 +6269,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -6256,13 +6297,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -6273,10 +6314,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -6284,13 +6325,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>113</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -6318,7 +6359,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -6346,7 +6387,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6357,10 +6398,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,7 +6409,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>31</v>
@@ -6382,13 +6423,13 @@
         <v>24</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,13 +6437,13 @@
         <v>25</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6410,13 +6451,13 @@
         <v>26</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6427,10 +6468,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6438,13 +6479,13 @@
         <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6452,13 +6493,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,54 +6507,12 @@
         <v>30</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>31</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>32</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>33</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6539,30 +6538,30 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9AF40-4D46-49BE-AE26-5091A88E9B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9AF40-4D46-49BE-AE26-5091A88E9B5F}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -6594,7 +6593,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -6611,9 +6610,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -6627,83 +6626,83 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="26"/>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U11" s="17"/>
@@ -6714,20 +6713,20 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="29" t="s">
+      <c r="AC11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="AD11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="29" t="s">
+      <c r="AF11" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -6738,16 +6737,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="17" t="s">
         <v>82</v>
       </c>
@@ -6757,13 +6756,13 @@
       <c r="O12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="17" t="s">
         <v>86</v>
       </c>
@@ -6788,10 +6787,10 @@
       <c r="AB12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="29"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="31"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -6805,7 +6804,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -6853,11 +6852,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
+        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -6886,7 +6885,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -6906,7 +6905,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -6920,7 +6919,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
+        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -6940,7 +6939,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -6964,11 +6963,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -6976,15 +6975,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
+        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
+        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
+        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -6996,15 +6995,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
+        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
+        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -7020,7 +7019,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -7034,7 +7033,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -7054,7 +7053,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -7062,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -7078,11 +7077,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -7090,15 +7089,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f t="shared" si="6"/>
+        <f si="6" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -7106,19 +7105,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
+        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f t="shared" si="8"/>
+        <f si="8" t="shared"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -7134,7 +7133,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -7153,7 +7152,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -7208,13 +7207,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -7250,13 +7249,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -7278,13 +7277,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -7295,10 +7294,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -7306,13 +7305,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>113</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -7340,7 +7339,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -7368,7 +7367,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7379,10 +7378,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7390,7 +7389,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>31</v>
@@ -7404,13 +7403,13 @@
         <v>24</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7418,13 +7417,13 @@
         <v>25</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7432,13 +7431,13 @@
         <v>26</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -7449,10 +7448,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,13 +7459,13 @@
         <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -7474,13 +7473,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -7488,54 +7487,12 @@
         <v>30</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>31</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>32</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>33</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7561,30 +7518,30 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F4743-9AF7-4CEE-A6DD-A1B7C98E08DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F4743-9AF7-4CEE-A6DD-A1B7C98E08DD}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -7633,9 +7590,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7649,83 +7606,83 @@
         <v>23</v>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="32" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="26"/>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="U11" s="17"/>
@@ -7736,20 +7693,20 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="29" t="s">
+      <c r="AC11" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AD11" s="27" t="s">
+      <c r="AD11" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="AF11" s="29" t="s">
+      <c r="AF11" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -7760,16 +7717,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="17" t="s">
         <v>82</v>
       </c>
@@ -7779,13 +7736,13 @@
       <c r="O12" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="34"/>
       <c r="Q12" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
       <c r="U12" s="17" t="s">
         <v>86</v>
       </c>
@@ -7810,10 +7767,10 @@
       <c r="AB12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="29"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="31"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -7827,7 +7784,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
@@ -7875,11 +7832,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
+        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
+        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -7908,7 +7865,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -7928,7 +7885,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="19">
         <v>2</v>
@@ -7942,7 +7899,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
+        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -7962,7 +7919,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -7986,11 +7943,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -7998,15 +7955,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
+        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
+        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
+        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -8018,15 +7975,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
+        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
+        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -8042,7 +7999,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="19">
         <v>3</v>
@@ -8056,7 +8013,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -8076,7 +8033,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -8084,7 +8041,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -8100,11 +8057,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -8112,15 +8069,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f t="shared" si="6"/>
+        <f si="6" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -8128,19 +8085,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
+        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f t="shared" si="8"/>
+        <f si="8" t="shared"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -8156,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -8175,7 +8132,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -8230,13 +8187,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -8272,13 +8229,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -8300,13 +8257,13 @@
         <v>15</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -8317,10 +8274,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -8328,13 +8285,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>113</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -8362,7 +8319,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
@@ -8390,7 +8347,7 @@
         <v>35</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8401,10 +8358,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8412,7 +8369,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>31</v>
@@ -8426,13 +8383,13 @@
         <v>24</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8440,13 +8397,13 @@
         <v>25</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8454,13 +8411,13 @@
         <v>26</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8471,10 +8428,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8482,13 +8439,13 @@
         <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8496,13 +8453,13 @@
         <v>29</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8510,54 +8467,12 @@
         <v>30</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>31</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>32</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>33</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8583,27 +8498,30 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9A1C9-E74F-4AAD-BAAF-9E465071BE05}">
-  <dimension ref="A1:AG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9A1C9-E74F-4AAD-BAAF-9E465071BE05}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -8619,7 +8537,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -8634,8 +8552,8 @@
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>117</v>
       </c>
       <c r="C4" s="12"/>
     </row>
@@ -8652,9 +8570,1023 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+    </row>
+    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD11" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE11" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF11" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20">
+        <v>2</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="20">
+        <f>IF(H13=1,I13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f>I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
+        <v>7</v>
+      </c>
+      <c r="N13" s="20">
+        <v>10</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21">
+        <f>IF(SUM(N13,M13,O13)&lt;10,SUM(N13,M13,O13),IF(SUM(N13,M13,O13)&lt;20,SUM(N13,M13,O13)-10,IF(SUM(N13,M13,O13)&lt;30,SUM(N13,M13,O13)-20,SUM(N13,M13,O13)-30)))</f>
+        <v>7</v>
+      </c>
+      <c r="Q13" s="21">
+        <f>P13</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="22">
+        <f>IF(V13&gt;Y13,1, IF(V13=Y13,-1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21">
+        <f>SUM(T14:T18)</f>
+        <v>2500000</v>
+      </c>
+      <c r="V13" s="21">
+        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <v>2000000</v>
+      </c>
+      <c r="W13" s="21">
+        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <v>4000000</v>
+      </c>
+      <c r="X13" s="21">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="21">
+        <f>IF(X13&lt;=W13,X13,W13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="21">
+        <f>W13-Y13</f>
+        <v>4000000</v>
+      </c>
+      <c r="AA13" s="21">
+        <f>Z13</f>
+        <v>4000000</v>
+      </c>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21">
+        <f>ROUND(AA13,0)</f>
+        <v>4000000</v>
+      </c>
+      <c r="AD13" s="21">
+        <f>AC13-I13</f>
+        <v>2000000</v>
+      </c>
+      <c r="AE13" s="21">
+        <f>ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <v>220000</v>
+      </c>
+      <c r="AF13" s="21">
+        <f>ROUND(AC13-AE13,0)</f>
+        <v>3780000</v>
+      </c>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1500000</v>
+      </c>
+      <c r="J14" s="20">
+        <f ref="J14:J15" si="2" t="shared">IF(H14=1,I14,0)</f>
+        <v>1500000</v>
+      </c>
+      <c r="K14" s="20">
+        <f>K13</f>
+        <v>2000000</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1500000</v>
+      </c>
+      <c r="M14" s="20">
+        <v>4</v>
+      </c>
+      <c r="N14" s="23">
+        <v>4</v>
+      </c>
+      <c r="O14" s="20">
+        <v>3</v>
+      </c>
+      <c r="P14" s="21">
+        <f ref="P14:P15" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>Q13</f>
+        <v>7</v>
+      </c>
+      <c r="R14" s="22">
+        <f>IF(P14&gt;Q14,1,IF(P14=Q14,-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
+        <f>IF(R14=1,L14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
+        <f>IF(R14=0,L14,0)</f>
+        <v>1500000</v>
+      </c>
+      <c r="U14" s="21">
+        <f>U13</f>
+        <v>2500000</v>
+      </c>
+      <c r="V14" s="21">
+        <f si="0" t="shared"/>
+        <v>2000000</v>
+      </c>
+      <c r="W14" s="21">
+        <f si="1" t="shared"/>
+        <v>4000000</v>
+      </c>
+      <c r="X14" s="21">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="21">
+        <f ref="Y14:Y15" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="21">
+        <f ref="Z14:Z15" si="5" t="shared">W14-Y14</f>
+        <v>4000000</v>
+      </c>
+      <c r="AA14" s="21">
+        <f ref="AA14:AA15" si="6" t="shared">Z14</f>
+        <v>4000000</v>
+      </c>
+      <c r="AB14" s="21">
+        <f>IF(R14=1,J14+S14/X14*Y14, IF(R14=0,J14-T14/U14*V14,I14))</f>
+        <v>300000</v>
+      </c>
+      <c r="AC14" s="21">
+        <f>ROUND(AB14,0)</f>
+        <v>300000</v>
+      </c>
+      <c r="AD14" s="21">
+        <f ref="AD14:AD15" si="7" t="shared">AC14-I14</f>
+        <v>-1200000</v>
+      </c>
+      <c r="AE14" s="21">
+        <f>ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.11,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="21">
+        <f ref="AF14:AF15" si="8" t="shared">ROUND(AC14-AE14,0)</f>
+        <v>300000</v>
+      </c>
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="J15" s="20">
+        <f si="2" t="shared"/>
+        <v>1000000</v>
+      </c>
+      <c r="K15" s="20">
+        <f>K14</f>
+        <v>2000000</v>
+      </c>
+      <c r="L15" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="M15" s="20">
+        <v>2</v>
+      </c>
+      <c r="N15" s="20">
+        <v>3</v>
+      </c>
+      <c r="O15" s="20">
+        <v>5</v>
+      </c>
+      <c r="P15" s="21">
+        <f si="3" t="shared"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="21">
+        <f>Q13</f>
+        <v>7</v>
+      </c>
+      <c r="R15" s="22">
+        <f ref="R15" si="9" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="21">
+        <f>IF(R15=1,L15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="21">
+        <f>IF(R15=0,L15,0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="U15" s="21">
+        <f>U13</f>
+        <v>2500000</v>
+      </c>
+      <c r="V15" s="21">
+        <f si="0" t="shared"/>
+        <v>2000000</v>
+      </c>
+      <c r="W15" s="21">
+        <f si="1" t="shared"/>
+        <v>4000000</v>
+      </c>
+      <c r="X15" s="21">
+        <f>SUM(S14:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="21">
+        <f si="4" t="shared"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="21">
+        <f si="5" t="shared"/>
+        <v>4000000</v>
+      </c>
+      <c r="AA15" s="21">
+        <f si="6" t="shared"/>
+        <v>4000000</v>
+      </c>
+      <c r="AB15" s="21">
+        <f>IF(R15=1,J15+S15/X15*Y15, IF(R15=0,J15-T15/U15*V15,I15))</f>
+        <v>200000</v>
+      </c>
+      <c r="AC15" s="21">
+        <f ref="AC15" si="10" t="shared">ROUND(AB15,0)</f>
+        <v>200000</v>
+      </c>
+      <c r="AD15" s="21">
+        <f si="7" t="shared"/>
+        <v>-800000</v>
+      </c>
+      <c r="AE15" s="21">
+        <f>ROUND(IF(AC15-I15&gt;0,(AC15-I15)*0.11,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="21">
+        <f si="8" t="shared"/>
+        <v>200000</v>
+      </c>
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>20</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>21</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>22</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>23</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>24</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>25</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>26</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>27</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>28</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>29</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>30</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>31</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>32</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>33</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="P10:AF10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E090EE-26F7-43B2-A9A5-D458D835AFA6}">
+  <dimension ref="A1:AH26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -8694,7 +9626,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -8737,7 +9669,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -8756,7 +9688,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -8775,7 +9707,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -8846,7 +9778,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8860,7 +9792,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8874,7 +9806,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8962,13 +9894,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E090EE-26F7-43B2-A9A5-D458D835AFA6}">
-  <dimension ref="A1:AG26"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F03283-7EE3-4ED6-A353-0470994C7A54}">
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -8976,13 +9908,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -8990,7 +9922,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -9031,9 +9963,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -9073,7 +10005,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -9116,7 +10048,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -9135,7 +10067,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -9154,7 +10086,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -9225,7 +10157,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9239,7 +10171,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9253,7 +10185,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9341,385 +10273,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F03283-7EE3-4ED6-A353-0470994C7A54}">
-  <dimension ref="A1:AG26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-    </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>7</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>8</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>9</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>10</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>12</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>13</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>14</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>15</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ExcelFile/CalcGoldTest.xlsx
+++ b/ExcelFile/CalcGoldTest.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9A378C22-31FB-497B-AB89-B7983B54DBB8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBDC112-DCF6-45E8-8699-59E988D09117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="11" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{DBC76449-05E2-482F-8185-1B455F705B53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" r:id="rId1" sheetId="1"/>
-    <sheet name="TC1" r:id="rId2" sheetId="2"/>
-    <sheet name="TC2" r:id="rId3" sheetId="3"/>
-    <sheet name="TC21" r:id="rId4" sheetId="16" state="hidden"/>
-    <sheet name="TC22" r:id="rId5" sheetId="17" state="hidden"/>
-    <sheet name="TC23" r:id="rId6" sheetId="18" state="hidden"/>
-    <sheet name="TC3" r:id="rId7" sheetId="4"/>
-    <sheet name="TC4" r:id="rId8" sheetId="5"/>
-    <sheet name="TC5" r:id="rId9" sheetId="6"/>
-    <sheet name="TC6" r:id="rId10" sheetId="7"/>
-    <sheet name="TC7" r:id="rId11" sheetId="8"/>
-    <sheet name="TC8" r:id="rId12" sheetId="10"/>
-    <sheet name="TC9" r:id="rId13" sheetId="9"/>
-    <sheet name="TC10" r:id="rId14" sheetId="12"/>
+    <sheet name="Status" sheetId="1" r:id="rId1"/>
+    <sheet name="TC1" sheetId="2" r:id="rId2"/>
+    <sheet name="TC2" sheetId="3" r:id="rId3"/>
+    <sheet name="TC21" sheetId="16" state="hidden" r:id="rId4"/>
+    <sheet name="TC22" sheetId="17" state="hidden" r:id="rId5"/>
+    <sheet name="TC23" sheetId="18" state="hidden" r:id="rId6"/>
+    <sheet name="TC3" sheetId="4" r:id="rId7"/>
+    <sheet name="TC4" sheetId="5" r:id="rId8"/>
+    <sheet name="TC5" sheetId="6" r:id="rId9"/>
+    <sheet name="TC6" sheetId="7" r:id="rId10"/>
+    <sheet name="TC7" sheetId="8" r:id="rId11"/>
+    <sheet name="TC8" sheetId="10" r:id="rId12"/>
+    <sheet name="TC9" sheetId="9" r:id="rId13"/>
+    <sheet name="TC10" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="137">
   <si>
     <t>Test case</t>
   </si>
@@ -459,16 +459,12 @@
   </si>
   <si>
     <t>2500</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,99 +610,100 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="11" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -723,10 +720,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -761,7 +758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -813,7 +810,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -924,21 +921,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -955,7 +952,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1007,15 +1004,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1010200-FB7E-4A2D-A5D1-6A49A284C870}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1010200-FB7E-4A2D-A5D1-6A49A284C870}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -1023,17 +1020,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="38.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="58.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1065,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,13 +1146,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13DC07E-A11E-444E-A749-45B3930F3057}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13DC07E-A11E-444E-A749-45B3930F3057}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1163,13 +1160,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1218,9 +1215,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1257,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1528,13 +1525,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0648B-A23C-4939-8C83-4D0DC4A360D1}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0648B-A23C-4939-8C83-4D0DC4A360D1}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
@@ -1542,13 +1539,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1597,9 +1594,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1639,7 +1636,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1907,30 +1904,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B3A5C-5E46-47CA-A2E8-3DFE7C09C665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69B3A5C-5E46-47CA-A2E8-3DFE7C09C665}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1979,9 +1976,9 @@
         <v>61</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -2027,7 +2024,7 @@
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2095,7 +2092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2221,11 +2218,11 @@
         <v>0</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>0</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
         <v>2000000</v>
       </c>
       <c r="X13" s="21">
@@ -2288,7 +2285,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -2308,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>8</v>
       </c>
       <c r="Q14" s="21">
@@ -2332,11 +2329,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="X14" s="21">
@@ -2344,15 +2341,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14" si="5" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
         <v>2000000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14" si="6" t="shared">Z14</f>
+        <f t="shared" ref="AA14" si="6">Z14</f>
         <v>2000000</v>
       </c>
       <c r="AB14" s="21">
@@ -2364,15 +2361,15 @@
         <v>1000000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14" si="7" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
         <v>0</v>
       </c>
       <c r="AE14" s="21">
-        <f ref="AE14" si="8" t="shared">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
+        <f t="shared" ref="AE14" si="8">ROUND(IF(AC14-I14&gt;0,(AC14-I14)*0.1,0),0)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14" si="9">ROUND(AC14-AE14,0)</f>
         <v>1000000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -2670,16 +2667,16 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D2B06-93B1-4DA5-99D9-D7FD97E68E4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D2B06-93B1-4DA5-99D9-D7FD97E68E4A}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -2687,13 +2684,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -2742,9 +2739,9 @@
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -2790,7 +2787,7 @@
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2858,7 +2855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -2984,11 +2981,11 @@
         <v>150000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>150000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
         <v>2150000</v>
       </c>
       <c r="X13" s="21">
@@ -3051,7 +3048,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -3071,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>7</v>
       </c>
       <c r="Q14" s="21">
@@ -3095,11 +3092,11 @@
         <v>150000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2150000</v>
       </c>
       <c r="X14" s="21">
@@ -3107,15 +3104,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14" si="5" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
         <v>2150000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14" si="6" t="shared">Z14</f>
+        <f t="shared" ref="AA14" si="6">Z14</f>
         <v>2150000</v>
       </c>
       <c r="AB14" s="21">
@@ -3127,7 +3124,7 @@
         <v>850000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14" si="7" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
         <v>-150000</v>
       </c>
       <c r="AE14" s="21">
@@ -3135,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14" si="8" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14" si="8">ROUND(AC14-AE14,0)</f>
         <v>850000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -3433,16 +3430,16 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3E7FD4-653E-4DD9-8992-EE34DFE176A9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -3450,13 +3447,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -3505,9 +3502,9 @@
         <v>99</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -3553,7 +3550,7 @@
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -3621,7 +3618,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -3747,11 +3744,11 @@
         <v>0</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V14" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V14" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>0</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W14" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W14" si="1">SUM(K13,V13)</f>
         <v>2000000</v>
       </c>
       <c r="X13" s="21">
@@ -3814,7 +3811,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14" si="2" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14" si="2">IF(H14=1,I14,0)</f>
         <v>1000000</v>
       </c>
       <c r="K14" s="20">
@@ -3832,7 +3829,7 @@
       </c>
       <c r="O14" s="20"/>
       <c r="P14" s="21">
-        <f ref="P14" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>9</v>
       </c>
       <c r="Q14" s="21">
@@ -3856,11 +3853,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="X14" s="21">
@@ -3868,15 +3865,15 @@
         <v>150000</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>150000</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14" si="5" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14" si="5">W14-Y14</f>
         <v>1850000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14" si="6" t="shared">Z14</f>
+        <f t="shared" ref="AA14" si="6">Z14</f>
         <v>1850000</v>
       </c>
       <c r="AB14" s="21">
@@ -3888,7 +3885,7 @@
         <v>1150000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14" si="7" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14" si="7">AC14-I14</f>
         <v>150000</v>
       </c>
       <c r="AE14" s="21">
@@ -3896,7 +3893,7 @@
         <v>16500</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14" si="8" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14" si="8">ROUND(AC14-AE14,0)</f>
         <v>1133500</v>
       </c>
       <c r="AG14" s="8"/>
@@ -4199,13 +4196,13 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D0B372-8D14-430A-8460-4C1F2CD08C7E}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D0B372-8D14-430A-8460-4C1F2CD08C7E}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -4213,13 +4210,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -4268,9 +4265,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4310,7 +4307,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -4578,30 +4575,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75E48C-2F2B-43CD-B98E-D707A881D9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E75E48C-2F2B-43CD-B98E-D707A881D9A3}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -4650,9 +4647,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -4698,7 +4695,7 @@
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -4766,7 +4763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -4892,11 +4889,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -4925,7 +4922,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -4959,7 +4956,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -4979,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -5003,11 +5000,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -5015,15 +5012,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -5035,15 +5032,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -5073,7 +5070,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -5093,7 +5090,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -5101,7 +5098,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -5117,11 +5114,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -5129,15 +5126,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -5145,19 +5142,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -5558,16 +5555,16 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325884A3-762C-497D-AD93-17170BEC7BD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325884A3-762C-497D-AD93-17170BEC7BD0}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -5575,13 +5572,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -5630,9 +5627,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -5678,7 +5675,7 @@
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -5746,7 +5743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -5872,11 +5869,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -5905,7 +5902,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -5939,7 +5936,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -5959,7 +5956,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -5983,11 +5980,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -5995,15 +5992,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -6015,15 +6012,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -6053,7 +6050,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -6073,7 +6070,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -6081,7 +6078,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -6097,11 +6094,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -6109,15 +6106,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -6125,19 +6122,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -6538,16 +6535,16 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9AF40-4D46-49BE-AE26-5091A88E9B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A9AF40-4D46-49BE-AE26-5091A88E9B5F}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -6555,13 +6552,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -6610,9 +6607,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -6658,7 +6655,7 @@
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -6726,7 +6723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -6852,11 +6849,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -6885,7 +6882,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -6919,7 +6916,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -6939,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -6963,11 +6960,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -6975,15 +6972,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -6995,15 +6992,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -7033,7 +7030,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -7053,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -7061,7 +7058,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -7077,11 +7074,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -7089,15 +7086,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -7105,19 +7102,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -7518,16 +7515,16 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F4743-9AF7-4CEE-A6DD-A1B7C98E08DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990F4743-9AF7-4CEE-A6DD-A1B7C98E08DD}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
@@ -7535,13 +7532,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -7590,9 +7587,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -7638,7 +7635,7 @@
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -7706,7 +7703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -7832,11 +7829,11 @@
         <v>375000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>375000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>2375000</v>
       </c>
       <c r="X13" s="21">
@@ -7865,7 +7862,7 @@
         <v>375000</v>
       </c>
       <c r="AE13" s="21">
-        <f ref="AE13:AE15" si="2" t="shared">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
+        <f t="shared" ref="AE13:AE15" si="2">ROUND(IF(AC13-I13&gt;0,(AC13-I13)*0.11,0),0)</f>
         <v>41250</v>
       </c>
       <c r="AF13" s="21">
@@ -7899,7 +7896,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="3" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="3">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -7919,7 +7916,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="4" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="4">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -7943,11 +7940,11 @@
         <v>375000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X14" s="21">
@@ -7955,15 +7952,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="5" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="5">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="6" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="6">W14-Y14</f>
         <v>2375000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="7" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="7">Z14</f>
         <v>2375000</v>
       </c>
       <c r="AB14" s="21">
@@ -7975,15 +7972,15 @@
         <v>1275000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="8" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="8">AC14-I14</f>
         <v>-225000</v>
       </c>
       <c r="AE14" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="9" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="9">ROUND(AC14-AE14,0)</f>
         <v>1275000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -8013,7 +8010,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -8033,7 +8030,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -8041,7 +8038,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="10" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="10">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -8057,11 +8054,11 @@
         <v>375000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>375000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>2375000</v>
       </c>
       <c r="X15" s="21">
@@ -8069,15 +8066,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>2375000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>2375000</v>
       </c>
       <c r="AB15" s="21">
@@ -8085,19 +8082,19 @@
         <v>850000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="11" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="11">ROUND(AB15,0)</f>
         <v>850000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>-150000</v>
       </c>
       <c r="AE15" s="21">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>850000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -8498,30 +8495,30 @@
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="R11:R12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9A1C9-E74F-4AAD-BAAF-9E465071BE05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B9A1C9-E74F-4AAD-BAAF-9E465071BE05}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -8570,9 +8567,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" ht="18.75" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -8618,7 +8615,7 @@
       <c r="AE10" s="33"/>
       <c r="AF10" s="33"/>
     </row>
-    <row customFormat="1" ht="15.75" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -8686,7 +8683,7 @@
         <v>81</v>
       </c>
     </row>
-    <row ht="15.75" r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -8812,11 +8809,11 @@
         <v>2500000</v>
       </c>
       <c r="V13" s="21">
-        <f ref="V13:V15" si="0" t="shared">IF(U13&lt;=K13,U13,K13)</f>
+        <f t="shared" ref="V13:V15" si="0">IF(U13&lt;=K13,U13,K13)</f>
         <v>2000000</v>
       </c>
       <c r="W13" s="21">
-        <f ref="W13:W15" si="1" t="shared">SUM(K13,V13)</f>
+        <f t="shared" ref="W13:W15" si="1">SUM(K13,V13)</f>
         <v>4000000</v>
       </c>
       <c r="X13" s="21">
@@ -8879,7 +8876,7 @@
         <v>1500000</v>
       </c>
       <c r="J14" s="20">
-        <f ref="J14:J15" si="2" t="shared">IF(H14=1,I14,0)</f>
+        <f t="shared" ref="J14:J15" si="2">IF(H14=1,I14,0)</f>
         <v>1500000</v>
       </c>
       <c r="K14" s="20">
@@ -8899,7 +8896,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="21">
-        <f ref="P14:P15" si="3" t="shared">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
+        <f t="shared" ref="P14:P15" si="3">IF(SUM(N14,M14,O14)&lt;10,SUM(N14,M14,O14),IF(SUM(N14,M14,O14)&lt;20,SUM(N14,M14,O14)-10,IF(SUM(N14,M14,O14)&lt;30,SUM(N14,M14,O14)-20,SUM(N14,M14,O14)-30)))</f>
         <v>1</v>
       </c>
       <c r="Q14" s="21">
@@ -8923,11 +8920,11 @@
         <v>2500000</v>
       </c>
       <c r="V14" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
       <c r="W14" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="X14" s="21">
@@ -8935,15 +8932,15 @@
         <v>0</v>
       </c>
       <c r="Y14" s="21">
-        <f ref="Y14:Y15" si="4" t="shared">IF(X14&lt;=W14,X14,W14)</f>
+        <f t="shared" ref="Y14:Y15" si="4">IF(X14&lt;=W14,X14,W14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="21">
-        <f ref="Z14:Z15" si="5" t="shared">W14-Y14</f>
+        <f t="shared" ref="Z14:Z15" si="5">W14-Y14</f>
         <v>4000000</v>
       </c>
       <c r="AA14" s="21">
-        <f ref="AA14:AA15" si="6" t="shared">Z14</f>
+        <f t="shared" ref="AA14:AA15" si="6">Z14</f>
         <v>4000000</v>
       </c>
       <c r="AB14" s="21">
@@ -8955,7 +8952,7 @@
         <v>300000</v>
       </c>
       <c r="AD14" s="21">
-        <f ref="AD14:AD15" si="7" t="shared">AC14-I14</f>
+        <f t="shared" ref="AD14:AD15" si="7">AC14-I14</f>
         <v>-1200000</v>
       </c>
       <c r="AE14" s="21">
@@ -8963,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f ref="AF14:AF15" si="8" t="shared">ROUND(AC14-AE14,0)</f>
+        <f t="shared" ref="AF14:AF15" si="8">ROUND(AC14-AE14,0)</f>
         <v>300000</v>
       </c>
       <c r="AG14" s="8"/>
@@ -8993,7 +8990,7 @@
         <v>1000000</v>
       </c>
       <c r="J15" s="20">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="K15" s="20">
@@ -9013,7 +9010,7 @@
         <v>5</v>
       </c>
       <c r="P15" s="21">
-        <f si="3" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="21">
@@ -9021,7 +9018,7 @@
         <v>7</v>
       </c>
       <c r="R15" s="22">
-        <f ref="R15" si="9" t="shared">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
+        <f t="shared" ref="R15" si="9">IF(P15&gt;Q15,1,IF(P15=Q15,-1,0))</f>
         <v>0</v>
       </c>
       <c r="S15" s="21">
@@ -9037,11 +9034,11 @@
         <v>2500000</v>
       </c>
       <c r="V15" s="21">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
       <c r="W15" s="21">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
       <c r="X15" s="21">
@@ -9049,15 +9046,15 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z15" s="21">
-        <f si="5" t="shared"/>
+        <f t="shared" si="5"/>
         <v>4000000</v>
       </c>
       <c r="AA15" s="21">
-        <f si="6" t="shared"/>
+        <f t="shared" si="6"/>
         <v>4000000</v>
       </c>
       <c r="AB15" s="21">
@@ -9065,11 +9062,11 @@
         <v>200000</v>
       </c>
       <c r="AC15" s="21">
-        <f ref="AC15" si="10" t="shared">ROUND(AB15,0)</f>
+        <f t="shared" ref="AC15" si="10">ROUND(AB15,0)</f>
         <v>200000</v>
       </c>
       <c r="AD15" s="21">
-        <f si="7" t="shared"/>
+        <f t="shared" si="7"/>
         <v>-800000</v>
       </c>
       <c r="AE15" s="21">
@@ -9077,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>200000</v>
       </c>
       <c r="AG15" s="8"/>
@@ -9363,7 +9360,7 @@
       <c r="C35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="38" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9515,13 +9512,14 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="I11:I12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E090EE-26F7-43B2-A9A5-D458D835AFA6}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E090EE-26F7-43B2-A9A5-D458D835AFA6}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -9529,13 +9527,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -9584,9 +9582,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -9626,7 +9624,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -9894,13 +9892,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F03283-7EE3-4ED6-A353-0470994C7A54}">
-  <dimension ref="A1:AH26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F03283-7EE3-4ED6-A353-0470994C7A54}">
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -9908,13 +9906,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="9" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="8" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="10" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="8" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="10" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -9963,9 +9961,9 @@
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="10" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -10005,7 +10003,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -10273,6 +10271,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>